--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_9_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_9_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1813042.551034231</v>
+        <v>1810594.668402807</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8017436.605027124</v>
+        <v>8017436.60502712</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673437</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="E2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>276.1565137023555</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>243.2386572690346</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>274.8776309323905</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -750,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>111.5079271034444</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>155.4089691709296</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>184.8095426485534</v>
       </c>
     </row>
     <row r="4">
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>7.884372849250095</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9278262653587</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>7.203367682519216</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>27.9298249512212</v>
       </c>
       <c r="I5" t="n">
-        <v>82.59957183216314</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481137</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089714</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646451</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250808</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229314</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S6" t="n">
-        <v>156.591242632523</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
         <v>196.8897623984489</v>
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>99.90187484148926</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>198.542403238434</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>326.7427931742286</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>152.4993846123582</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1421,7 +1421,7 @@
         <v>100.5325094860837</v>
       </c>
       <c r="T11" t="n">
-        <v>202.2552881011156</v>
+        <v>202.2552881011162</v>
       </c>
       <c r="U11" t="n">
         <v>250.9647859936066</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>113.4712165706522</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8554320345623</v>
       </c>
       <c r="H13" t="n">
-        <v>143.2402153913423</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.7998324014319</v>
+        <v>6.805488577814025</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.8209781352695</v>
       </c>
       <c r="U13" t="n">
         <v>286.2025449570056</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>24.045447594163</v>
+        <v>7.107970499853018</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.8554320345623</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>91.22874267771861</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>81.27141806815405</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>186.7998324014319</v>
       </c>
       <c r="T16" t="n">
-        <v>218.8209781352695</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2025449570056</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784672</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>142.3488046172664</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.8554320345623</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>84.42165032472725</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>81.27141806815405</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>186.7998324014319</v>
       </c>
       <c r="T19" t="n">
-        <v>218.8209781352695</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2025449570056</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174114</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>151.1121839838859</v>
       </c>
       <c r="H22" t="n">
-        <v>7.686861286639932</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>81.27141806815405</v>
       </c>
       <c r="S22" t="n">
         <v>186.7998324014319</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2369,7 +2369,7 @@
         <v>100.5325094860837</v>
       </c>
       <c r="T23" t="n">
-        <v>202.2552881011162</v>
+        <v>202.2552881011156</v>
       </c>
       <c r="U23" t="n">
         <v>250.9647859936066</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560518</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>85.81303938879266</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.8554320345623</v>
       </c>
       <c r="H25" t="n">
-        <v>71.83649124141783</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2716,10 +2716,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>7.686861286640832</v>
       </c>
       <c r="E28" t="n">
-        <v>1.99620596241374</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>143.2402153913423</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>81.27141806815405</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>186.7998324014319</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>218.8209781352695</v>
       </c>
       <c r="U28" t="n">
         <v>286.2025449570056</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>61.87916663185363</v>
+        <v>41.55916041256557</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>143.2402153913423</v>
       </c>
       <c r="I31" t="n">
         <v>91.22874267771861</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>186.7998324014319</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>218.8209781352695</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>100.53250948609</v>
+        <v>100.5325094860837</v>
       </c>
       <c r="T32" t="n">
         <v>202.2552881011162</v>
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.8554320345623</v>
       </c>
       <c r="H34" t="n">
-        <v>4.492436291360036</v>
+        <v>143.2402153913423</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>81.27141806815405</v>
       </c>
       <c r="S34" t="n">
         <v>186.7998324014319</v>
       </c>
       <c r="T34" t="n">
-        <v>218.8209781352695</v>
+        <v>207.27147733982</v>
       </c>
       <c r="U34" t="n">
         <v>286.2025449570056</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>370.3567309856352</v>
+        <v>370.3567309856354</v>
       </c>
       <c r="C35" t="n">
-        <v>352.8957810931622</v>
+        <v>352.8957810931623</v>
       </c>
       <c r="D35" t="n">
-        <v>342.3059309428376</v>
+        <v>342.3059309428377</v>
       </c>
       <c r="E35" t="n">
-        <v>369.5532593944164</v>
+        <v>369.5532593944166</v>
       </c>
       <c r="F35" t="n">
-        <v>394.498935063866</v>
+        <v>394.4989350638662</v>
       </c>
       <c r="G35" t="n">
-        <v>398.1647904094164</v>
+        <v>398.1647904094166</v>
       </c>
       <c r="H35" t="n">
-        <v>278.3407753709649</v>
+        <v>278.340775370965</v>
       </c>
       <c r="I35" t="n">
-        <v>14.55663250697714</v>
+        <v>14.5566325069773</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>88.1553988082383</v>
+        <v>88.15539880823847</v>
       </c>
       <c r="T35" t="n">
-        <v>189.8781774232708</v>
+        <v>189.878177423271</v>
       </c>
       <c r="U35" t="n">
-        <v>238.5876753157612</v>
+        <v>238.5876753157614</v>
       </c>
       <c r="V35" t="n">
-        <v>315.3751477922895</v>
+        <v>315.3751477922897</v>
       </c>
       <c r="W35" t="n">
-        <v>336.8638580395676</v>
+        <v>336.8638580395678</v>
       </c>
       <c r="X35" t="n">
-        <v>357.3539900006236</v>
+        <v>357.3539900006238</v>
       </c>
       <c r="Y35" t="n">
-        <v>373.8608279782082</v>
+        <v>373.8608279782084</v>
       </c>
     </row>
     <row r="36">
@@ -3424,25 +3424,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>154.8697104207826</v>
       </c>
       <c r="D37" t="n">
-        <v>136.238362340367</v>
+        <v>136.2383623403671</v>
       </c>
       <c r="E37" t="n">
-        <v>134.0568519687238</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>133.0439373450859</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>9.100639605007899</v>
+        <v>153.4783213567171</v>
       </c>
       <c r="H37" t="n">
-        <v>130.8631047134969</v>
+        <v>130.5013228054752</v>
       </c>
       <c r="I37" t="n">
-        <v>78.85163199987322</v>
+        <v>78.85163199987339</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>68.89430739030865</v>
+        <v>68.89430739030882</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>174.4227217235867</v>
       </c>
       <c r="T37" t="n">
-        <v>206.4438674574241</v>
+        <v>206.4438674574243</v>
       </c>
       <c r="U37" t="n">
-        <v>273.8254342791602</v>
+        <v>273.8254342791604</v>
       </c>
       <c r="V37" t="n">
-        <v>239.7605326459826</v>
+        <v>239.7605326459828</v>
       </c>
       <c r="W37" t="n">
-        <v>274.1458876587456</v>
+        <v>274.1458876587458</v>
       </c>
       <c r="X37" t="n">
-        <v>213.3325447111918</v>
+        <v>213.3325447111919</v>
       </c>
       <c r="Y37" t="n">
-        <v>206.2075426742494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>370.3567309856352</v>
+        <v>370.3567309856354</v>
       </c>
       <c r="C38" t="n">
-        <v>352.8957810931622</v>
+        <v>352.8957810931623</v>
       </c>
       <c r="D38" t="n">
-        <v>342.3059309428376</v>
+        <v>342.3059309428377</v>
       </c>
       <c r="E38" t="n">
-        <v>369.5532593944164</v>
+        <v>369.5532593944166</v>
       </c>
       <c r="F38" t="n">
-        <v>394.4989350638661</v>
+        <v>394.4989350638662</v>
       </c>
       <c r="G38" t="n">
-        <v>398.1647904094165</v>
+        <v>398.1647904094178</v>
       </c>
       <c r="H38" t="n">
-        <v>278.3407753709649</v>
+        <v>278.340775370965</v>
       </c>
       <c r="I38" t="n">
-        <v>14.5566325069772</v>
+        <v>14.55663250697731</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>88.15539880823836</v>
+        <v>88.15539880823847</v>
       </c>
       <c r="T38" t="n">
-        <v>189.8781774232709</v>
+        <v>189.878177423271</v>
       </c>
       <c r="U38" t="n">
-        <v>238.5876753157613</v>
+        <v>238.5876753157614</v>
       </c>
       <c r="V38" t="n">
-        <v>315.3751477922896</v>
+        <v>315.3751477922897</v>
       </c>
       <c r="W38" t="n">
-        <v>336.8638580395677</v>
+        <v>336.8638580395678</v>
       </c>
       <c r="X38" t="n">
-        <v>357.3539900006237</v>
+        <v>357.3539900006238</v>
       </c>
       <c r="Y38" t="n">
-        <v>373.8608279782082</v>
+        <v>373.8608279782084</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>167.454869504092</v>
+        <v>167.4548695040921</v>
       </c>
       <c r="C40" t="n">
-        <v>154.8697104207825</v>
+        <v>154.8697104207826</v>
       </c>
       <c r="D40" t="n">
-        <v>136.238362340367</v>
+        <v>136.2383623403671</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>134.0568519687239</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>153.478321356717</v>
+        <v>153.4783213567171</v>
       </c>
       <c r="H40" t="n">
-        <v>130.863104713497</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>78.85163199987328</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>174.4227217235866</v>
+        <v>174.4227217235867</v>
       </c>
       <c r="T40" t="n">
-        <v>107.5215234356216</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>273.8254342791603</v>
+        <v>273.8254342791604</v>
       </c>
       <c r="V40" t="n">
-        <v>239.7605326459827</v>
+        <v>216.732398151999</v>
       </c>
       <c r="W40" t="n">
-        <v>274.1458876587457</v>
+        <v>274.1458876587458</v>
       </c>
       <c r="X40" t="n">
-        <v>213.3325447111918</v>
+        <v>213.3325447111919</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>206.2075426742496</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>370.3567309856352</v>
+        <v>370.3567309856354</v>
       </c>
       <c r="C41" t="n">
-        <v>352.8957810931622</v>
+        <v>352.8957810931623</v>
       </c>
       <c r="D41" t="n">
-        <v>342.3059309428376</v>
+        <v>342.3059309428377</v>
       </c>
       <c r="E41" t="n">
-        <v>369.5532593944164</v>
+        <v>369.5532593944166</v>
       </c>
       <c r="F41" t="n">
-        <v>394.4989350638661</v>
+        <v>394.4989350638662</v>
       </c>
       <c r="G41" t="n">
-        <v>398.1647904094165</v>
+        <v>398.1647904094166</v>
       </c>
       <c r="H41" t="n">
-        <v>278.3407753709649</v>
+        <v>278.340775370965</v>
       </c>
       <c r="I41" t="n">
-        <v>14.55663250697719</v>
+        <v>14.5566325069773</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>88.15539880823836</v>
+        <v>88.15539880823847</v>
       </c>
       <c r="T41" t="n">
-        <v>189.8781774232709</v>
+        <v>189.878177423271</v>
       </c>
       <c r="U41" t="n">
-        <v>238.5876753157613</v>
+        <v>238.5876753157614</v>
       </c>
       <c r="V41" t="n">
-        <v>315.3751477922896</v>
+        <v>315.3751477922897</v>
       </c>
       <c r="W41" t="n">
-        <v>336.8638580395677</v>
+        <v>336.8638580395678</v>
       </c>
       <c r="X41" t="n">
-        <v>357.3539900006231</v>
+        <v>357.3539900006238</v>
       </c>
       <c r="Y41" t="n">
-        <v>373.8608279782082</v>
+        <v>373.8608279782084</v>
       </c>
     </row>
     <row r="42">
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>167.454869504092</v>
+        <v>167.4548695040921</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>136.238362340367</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>133.0439373450859</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>153.4783213567171</v>
       </c>
       <c r="H43" t="n">
-        <v>130.863104713497</v>
+        <v>130.8631047134971</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>68.89430739030882</v>
       </c>
       <c r="S43" t="n">
-        <v>174.4227217235866</v>
+        <v>174.4227217235867</v>
       </c>
       <c r="T43" t="n">
-        <v>206.4438674574242</v>
+        <v>206.4438674574243</v>
       </c>
       <c r="U43" t="n">
-        <v>273.8254342791603</v>
+        <v>269.7609449538204</v>
       </c>
       <c r="V43" t="n">
-        <v>239.7605326459827</v>
+        <v>239.7605326459828</v>
       </c>
       <c r="W43" t="n">
-        <v>274.1458876587457</v>
+        <v>274.1458876587458</v>
       </c>
       <c r="X43" t="n">
-        <v>213.3325447111918</v>
+        <v>213.3325447111919</v>
       </c>
       <c r="Y43" t="n">
-        <v>155.2333824104834</v>
+        <v>206.2075426742496</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>370.3567309856352</v>
+        <v>370.3567309856354</v>
       </c>
       <c r="C44" t="n">
-        <v>352.8957810931622</v>
+        <v>352.8957810931623</v>
       </c>
       <c r="D44" t="n">
-        <v>342.3059309428376</v>
+        <v>342.3059309428377</v>
       </c>
       <c r="E44" t="n">
-        <v>369.5532593944164</v>
+        <v>369.5532593944166</v>
       </c>
       <c r="F44" t="n">
-        <v>394.4989350638661</v>
+        <v>394.4989350638662</v>
       </c>
       <c r="G44" t="n">
-        <v>398.1647904094165</v>
+        <v>398.1647904094166</v>
       </c>
       <c r="H44" t="n">
-        <v>278.3407753709649</v>
+        <v>278.340775370965</v>
       </c>
       <c r="I44" t="n">
-        <v>14.55663250697719</v>
+        <v>14.55663250697731</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>88.15539880823836</v>
+        <v>88.15539880823847</v>
       </c>
       <c r="T44" t="n">
-        <v>189.8781774232709</v>
+        <v>189.878177423271</v>
       </c>
       <c r="U44" t="n">
-        <v>238.5876753157613</v>
+        <v>238.5876753157614</v>
       </c>
       <c r="V44" t="n">
-        <v>315.3751477922892</v>
+        <v>315.375147792291</v>
       </c>
       <c r="W44" t="n">
-        <v>336.8638580395677</v>
+        <v>336.8638580395678</v>
       </c>
       <c r="X44" t="n">
-        <v>357.3539900006237</v>
+        <v>357.3539900006238</v>
       </c>
       <c r="Y44" t="n">
-        <v>373.8608279782082</v>
+        <v>373.8608279782084</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>81.3450009236533</v>
+        <v>167.4548695040921</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>154.8697104207826</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>136.2383623403671</v>
       </c>
       <c r="E46" t="n">
-        <v>134.0568519687238</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>124.6038500821262</v>
       </c>
       <c r="G46" t="n">
-        <v>153.478321356717</v>
+        <v>153.4783213567171</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>130.8631047134971</v>
       </c>
       <c r="I46" t="n">
-        <v>78.85163199987328</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>68.89430739030871</v>
+        <v>68.89430739030882</v>
       </c>
       <c r="S46" t="n">
-        <v>174.4227217235866</v>
+        <v>174.4227217235867</v>
       </c>
       <c r="T46" t="n">
-        <v>206.4438674574242</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>273.8254342791603</v>
+        <v>273.8254342791604</v>
       </c>
       <c r="V46" t="n">
-        <v>239.7605326459827</v>
+        <v>239.7605326459828</v>
       </c>
       <c r="W46" t="n">
-        <v>274.1458876587457</v>
+        <v>274.1458876587458</v>
       </c>
       <c r="X46" t="n">
-        <v>213.3325447111918</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>206.2075426742495</v>
+        <v>206.2075426742496</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>825.6800813726992</v>
+        <v>323.2990948046596</v>
       </c>
       <c r="C2" t="n">
-        <v>825.6800813726992</v>
+        <v>323.2990948046596</v>
       </c>
       <c r="D2" t="n">
-        <v>825.6800813726992</v>
+        <v>44.35312136793684</v>
       </c>
       <c r="E2" t="n">
-        <v>546.7341079359765</v>
+        <v>44.35312136793684</v>
       </c>
       <c r="F2" t="n">
-        <v>267.7881344992537</v>
+        <v>37.40762061873336</v>
       </c>
       <c r="G2" t="n">
         <v>22.09252109618844</v>
@@ -4337,10 +4337,10 @@
         <v>344.9085595412869</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173957</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823544</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O2" t="n">
         <v>989.7620250901066</v>
@@ -4358,22 +4358,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T2" t="n">
-        <v>1104.626054809422</v>
+        <v>879.8992409003627</v>
       </c>
       <c r="U2" t="n">
-        <v>1104.626054809422</v>
+        <v>879.8992409003627</v>
       </c>
       <c r="V2" t="n">
-        <v>1104.626054809422</v>
+        <v>602.2450682413823</v>
       </c>
       <c r="W2" t="n">
-        <v>1104.626054809422</v>
+        <v>602.2450682413823</v>
       </c>
       <c r="X2" t="n">
-        <v>1104.626054809422</v>
+        <v>602.2450682413823</v>
       </c>
       <c r="Y2" t="n">
-        <v>825.6800813726992</v>
+        <v>602.2450682413823</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>447.8345559502283</v>
+        <v>134.7267908976475</v>
       </c>
       <c r="C3" t="n">
-        <v>273.3815266691013</v>
+        <v>134.7267908976475</v>
       </c>
       <c r="D3" t="n">
-        <v>273.3815266691013</v>
+        <v>134.7267908976475</v>
       </c>
       <c r="E3" t="n">
-        <v>273.3815266691013</v>
+        <v>134.7267908976475</v>
       </c>
       <c r="F3" t="n">
-        <v>273.3815266691013</v>
+        <v>134.7267908976475</v>
       </c>
       <c r="G3" t="n">
         <v>134.7267908976475</v>
@@ -4407,52 +4407,52 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>22.09252109618844</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K3" t="n">
-        <v>94.45522409818579</v>
+        <v>42.78065525324479</v>
       </c>
       <c r="L3" t="n">
-        <v>94.45522409818579</v>
+        <v>288.9361218459458</v>
       </c>
       <c r="M3" t="n">
-        <v>367.8501726635177</v>
+        <v>562.3310704112777</v>
       </c>
       <c r="N3" t="n">
-        <v>641.2451212288496</v>
+        <v>562.3310704112777</v>
       </c>
       <c r="O3" t="n">
-        <v>907.7419348121334</v>
+        <v>828.8278839945615</v>
       </c>
       <c r="P3" t="n">
-        <v>1104.626054809422</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1008.180757940352</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>1008.180757940352</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="T3" t="n">
-        <v>1008.180757940352</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="U3" t="n">
-        <v>1008.180757940352</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="V3" t="n">
-        <v>773.028649708609</v>
+        <v>697.4699338288578</v>
       </c>
       <c r="W3" t="n">
-        <v>773.028649708609</v>
+        <v>697.4699338288578</v>
       </c>
       <c r="X3" t="n">
-        <v>616.0498929702962</v>
+        <v>489.618433623325</v>
       </c>
       <c r="Y3" t="n">
-        <v>616.0498929702962</v>
+        <v>302.9421279177155</v>
       </c>
     </row>
     <row r="4">
@@ -4465,28 +4465,28 @@
         <v>198.9927170031359</v>
       </c>
       <c r="C4" t="n">
-        <v>198.9927170031359</v>
+        <v>30.05653407522894</v>
       </c>
       <c r="D4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G4" t="n">
-        <v>29.36865006843007</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H4" t="n">
-        <v>29.36865006843007</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I4" t="n">
-        <v>29.36865006843007</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J4" t="n">
-        <v>29.36865006843007</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K4" t="n">
         <v>22.09252109618844</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2079.343073798771</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="C5" t="n">
-        <v>1710.380556858359</v>
+        <v>1251.118186271549</v>
       </c>
       <c r="D5" t="n">
-        <v>1352.114858251608</v>
+        <v>892.8524876647982</v>
       </c>
       <c r="E5" t="n">
-        <v>966.3266056533641</v>
+        <v>507.064235066554</v>
       </c>
       <c r="F5" t="n">
-        <v>555.3407008637566</v>
+        <v>500.1187343173505</v>
       </c>
       <c r="G5" t="n">
-        <v>137.3768927619435</v>
+        <v>82.15492621553739</v>
       </c>
       <c r="H5" t="n">
-        <v>137.3768927619435</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036458</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533148</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.961649073314</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224099</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280446</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977179</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642694</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791258</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018229</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548722</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862893</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862893</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862893</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862893</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862893</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X5" t="n">
-        <v>2465.942913862893</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y5" t="n">
-        <v>2465.942913862893</v>
+        <v>1620.08070321196</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170898</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359628</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
         <v>665.1105362747051</v>
@@ -4641,55 +4641,55 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036458</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204947</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615936</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.821920859874</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417906</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517458</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537802</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152632</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018229</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430054</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.76274807397</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196749</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167589</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935846</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207645</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002112</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237158</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>527.5811021474124</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>527.5811021474124</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>527.5811021474124</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>527.5811021474124</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>380.691154649502</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036458</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036458</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036458</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.245174886633</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477918</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658222</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502516</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594921</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064366</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064366</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064366</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064366</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064366</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064366</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064366</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>527.5811021474124</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>527.5811021474124</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>527.5811021474124</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>864.6405432696254</v>
+        <v>744.3346612638211</v>
       </c>
       <c r="C8" t="n">
-        <v>864.6405432696254</v>
+        <v>375.3721443234094</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>375.3721443234094</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>375.3721443234094</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>1521.073833303755</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.683768698139</v>
+        <v>1130.934501327943</v>
       </c>
     </row>
     <row r="9">
@@ -5030,7 +5030,7 @@
         <v>830.5068554322152</v>
       </c>
       <c r="G11" t="n">
-        <v>415.8180664551829</v>
+        <v>415.818066455183</v>
       </c>
       <c r="H11" t="n">
         <v>122.1636361028493</v>
@@ -5039,28 +5039,28 @@
         <v>94.95783490605888</v>
       </c>
       <c r="J11" t="n">
-        <v>483.1573788074975</v>
+        <v>377.7349027031877</v>
       </c>
       <c r="K11" t="n">
-        <v>1185.712669012881</v>
+        <v>759.3862344631177</v>
       </c>
       <c r="L11" t="n">
-        <v>1696.086655838285</v>
+        <v>1269.760221288522</v>
       </c>
       <c r="M11" t="n">
-        <v>2295.645492164925</v>
+        <v>2314.337455773066</v>
       </c>
       <c r="N11" t="n">
-        <v>2909.519625661628</v>
+        <v>3361.185044437634</v>
       </c>
       <c r="O11" t="n">
-        <v>3475.848301254119</v>
+        <v>3927.513720030124</v>
       </c>
       <c r="P11" t="n">
-        <v>4243.27644362614</v>
+        <v>4376.361141312378</v>
       </c>
       <c r="Q11" t="n">
-        <v>4600.194859714913</v>
+        <v>4665.254115389165</v>
       </c>
       <c r="R11" t="n">
         <v>4747.891745302943</v>
@@ -5072,10 +5072,10 @@
         <v>4442.045485113853</v>
       </c>
       <c r="U11" t="n">
-        <v>4188.545701281927</v>
+        <v>4188.545701281928</v>
       </c>
       <c r="V11" t="n">
-        <v>3857.482813938356</v>
+        <v>3857.482813938357</v>
       </c>
       <c r="W11" t="n">
         <v>3504.714158668243</v>
@@ -5121,22 +5121,22 @@
         <v>207.6433191506343</v>
       </c>
       <c r="K12" t="n">
-        <v>478.3955847293974</v>
+        <v>207.6433191506343</v>
       </c>
       <c r="L12" t="n">
-        <v>564.2703235155536</v>
+        <v>618.0256942813071</v>
       </c>
       <c r="M12" t="n">
-        <v>1062.524066979184</v>
+        <v>1116.279437744938</v>
       </c>
       <c r="N12" t="n">
-        <v>1588.373749347759</v>
+        <v>1642.129120113512</v>
       </c>
       <c r="O12" t="n">
-        <v>2047.203680442057</v>
+        <v>2100.959051207811</v>
       </c>
       <c r="P12" t="n">
-        <v>2396.122085063224</v>
+        <v>2449.877455828978</v>
       </c>
       <c r="Q12" t="n">
         <v>2579.445601866743</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>537.6746541546688</v>
+        <v>431.4247572628167</v>
       </c>
       <c r="C13" t="n">
-        <v>537.6746541546688</v>
+        <v>262.4885743349097</v>
       </c>
       <c r="D13" t="n">
-        <v>387.5580147423331</v>
+        <v>262.4885743349097</v>
       </c>
       <c r="E13" t="n">
-        <v>239.64492115994</v>
+        <v>262.4885743349097</v>
       </c>
       <c r="F13" t="n">
-        <v>239.64492115994</v>
+        <v>262.4885743349097</v>
       </c>
       <c r="G13" t="n">
-        <v>239.64492115994</v>
+        <v>94.95783490605888</v>
       </c>
       <c r="H13" t="n">
         <v>94.95783490605888</v>
@@ -5203,46 +5203,46 @@
         <v>375.5894667189773</v>
       </c>
       <c r="L13" t="n">
-        <v>717.2262601417086</v>
+        <v>717.226260141709</v>
       </c>
       <c r="M13" t="n">
         <v>1087.823480887445</v>
       </c>
       <c r="N13" t="n">
-        <v>1455.043344471215</v>
+        <v>1455.043344471218</v>
       </c>
       <c r="O13" t="n">
-        <v>1778.214029233588</v>
+        <v>1778.214029233591</v>
       </c>
       <c r="P13" t="n">
-        <v>2031.221697279895</v>
+        <v>2031.221697279898</v>
       </c>
       <c r="Q13" t="n">
-        <v>2122.956012064406</v>
+        <v>2122.95601206441</v>
       </c>
       <c r="R13" t="n">
-        <v>2122.956012064406</v>
+        <v>2122.95601206441</v>
       </c>
       <c r="S13" t="n">
-        <v>1934.269312669021</v>
+        <v>2116.081781177729</v>
       </c>
       <c r="T13" t="n">
-        <v>1934.269312669021</v>
+        <v>1895.050490132002</v>
       </c>
       <c r="U13" t="n">
-        <v>1645.17583291447</v>
+        <v>1605.957010377451</v>
       </c>
       <c r="V13" t="n">
-        <v>1390.491344708583</v>
+        <v>1351.272522171565</v>
       </c>
       <c r="W13" t="n">
-        <v>1101.074174671622</v>
+        <v>1061.855352134604</v>
       </c>
       <c r="X13" t="n">
-        <v>873.0846237736052</v>
+        <v>833.8658012365865</v>
       </c>
       <c r="Y13" t="n">
-        <v>652.2920446300751</v>
+        <v>613.0732220930563</v>
       </c>
     </row>
     <row r="14">
@@ -5273,49 +5273,49 @@
         <v>122.1636361028493</v>
       </c>
       <c r="I14" t="n">
-        <v>94.95783490605888</v>
+        <v>94.95783490605889</v>
       </c>
       <c r="J14" t="n">
-        <v>406.0502357404297</v>
+        <v>315.7517297871445</v>
       </c>
       <c r="K14" t="n">
-        <v>1108.605525945813</v>
+        <v>697.4030615470745</v>
       </c>
       <c r="L14" t="n">
-        <v>1618.979512771217</v>
+        <v>1621.261650777424</v>
       </c>
       <c r="M14" t="n">
-        <v>2218.538349097857</v>
+        <v>2220.820487104065</v>
       </c>
       <c r="N14" t="n">
-        <v>2832.41248259456</v>
+        <v>2919.133609313265</v>
       </c>
       <c r="O14" t="n">
-        <v>3398.741158187051</v>
+        <v>3862.454464355873</v>
       </c>
       <c r="P14" t="n">
-        <v>4166.169300559072</v>
+        <v>4311.301885638127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4665.254115389165</v>
+        <v>4600.194859714914</v>
       </c>
       <c r="R14" t="n">
-        <v>4747.891745302943</v>
+        <v>4747.891745302944</v>
       </c>
       <c r="S14" t="n">
-        <v>4646.343755923061</v>
+        <v>4646.343755923062</v>
       </c>
       <c r="T14" t="n">
-        <v>4442.045485113853</v>
+        <v>4442.045485113854</v>
       </c>
       <c r="U14" t="n">
-        <v>4188.545701281927</v>
+        <v>4188.545701281928</v>
       </c>
       <c r="V14" t="n">
-        <v>3857.482813938356</v>
+        <v>3857.482813938357</v>
       </c>
       <c r="W14" t="n">
-        <v>3504.714158668242</v>
+        <v>3504.714158668243</v>
       </c>
       <c r="X14" t="n">
         <v>3131.248400407163</v>
@@ -5352,7 +5352,7 @@
         <v>106.8974813492384</v>
       </c>
       <c r="I15" t="n">
-        <v>94.95783490605888</v>
+        <v>94.95783490605889</v>
       </c>
       <c r="J15" t="n">
         <v>207.6433191506343</v>
@@ -5364,13 +5364,13 @@
         <v>888.7779598600702</v>
       </c>
       <c r="M15" t="n">
-        <v>1387.031703323701</v>
+        <v>1245.847583782703</v>
       </c>
       <c r="N15" t="n">
-        <v>1912.881385692276</v>
+        <v>1771.697266151278</v>
       </c>
       <c r="O15" t="n">
-        <v>2371.711316786574</v>
+        <v>2230.527197245576</v>
       </c>
       <c r="P15" t="n">
         <v>2579.445601866743</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>438.2989881494965</v>
+        <v>677.6447180714055</v>
       </c>
       <c r="C16" t="n">
-        <v>269.3628052215896</v>
+        <v>508.7085351434986</v>
       </c>
       <c r="D16" t="n">
-        <v>119.2461658092538</v>
+        <v>508.7085351434986</v>
       </c>
       <c r="E16" t="n">
-        <v>94.95783490605888</v>
+        <v>501.5287669618289</v>
       </c>
       <c r="F16" t="n">
-        <v>94.95783490605888</v>
+        <v>354.6388194639185</v>
       </c>
       <c r="G16" t="n">
-        <v>94.95783490605888</v>
+        <v>187.1080800350676</v>
       </c>
       <c r="H16" t="n">
-        <v>94.95783490605888</v>
+        <v>187.1080800350676</v>
       </c>
       <c r="I16" t="n">
-        <v>94.95783490605888</v>
+        <v>94.95783490605889</v>
       </c>
       <c r="J16" t="n">
-        <v>152.005610432035</v>
+        <v>152.0056104320352</v>
       </c>
       <c r="K16" t="n">
-        <v>375.5894667189773</v>
+        <v>375.5894667189777</v>
       </c>
       <c r="L16" t="n">
-        <v>717.2262601417088</v>
+        <v>717.2262601417094</v>
       </c>
       <c r="M16" t="n">
         <v>1087.823480887445</v>
@@ -5452,34 +5452,34 @@
         <v>1778.214029233591</v>
       </c>
       <c r="P16" t="n">
-        <v>2031.221697279897</v>
+        <v>2031.221697279898</v>
       </c>
       <c r="Q16" t="n">
-        <v>2122.956012064409</v>
+        <v>2122.95601206441</v>
       </c>
       <c r="R16" t="n">
-        <v>2122.956012064409</v>
+        <v>2040.863670581426</v>
       </c>
       <c r="S16" t="n">
-        <v>2122.956012064409</v>
+        <v>1852.17697118604</v>
       </c>
       <c r="T16" t="n">
-        <v>1901.924721018682</v>
+        <v>1852.17697118604</v>
       </c>
       <c r="U16" t="n">
-        <v>1612.831241264131</v>
+        <v>1852.17697118604</v>
       </c>
       <c r="V16" t="n">
-        <v>1358.146753058244</v>
+        <v>1597.492482980153</v>
       </c>
       <c r="W16" t="n">
-        <v>1068.729583021284</v>
+        <v>1308.075312943192</v>
       </c>
       <c r="X16" t="n">
-        <v>840.7400321232664</v>
+        <v>1080.085762045175</v>
       </c>
       <c r="Y16" t="n">
-        <v>619.9474529797362</v>
+        <v>859.2931829016451</v>
       </c>
     </row>
     <row r="17">
@@ -5504,55 +5504,55 @@
         <v>830.5068554322152</v>
       </c>
       <c r="G17" t="n">
-        <v>415.8180664551829</v>
+        <v>415.818066455183</v>
       </c>
       <c r="H17" t="n">
         <v>122.1636361028493</v>
       </c>
       <c r="I17" t="n">
-        <v>94.95783490605888</v>
+        <v>94.95783490605889</v>
       </c>
       <c r="J17" t="n">
         <v>483.1573788074975</v>
       </c>
       <c r="K17" t="n">
-        <v>948.6423889563825</v>
+        <v>1185.712669012881</v>
       </c>
       <c r="L17" t="n">
-        <v>1872.500978186732</v>
+        <v>1696.086655838285</v>
       </c>
       <c r="M17" t="n">
-        <v>2472.059814513373</v>
+        <v>2295.645492164925</v>
       </c>
       <c r="N17" t="n">
-        <v>3085.933948010076</v>
+        <v>2909.519625661628</v>
       </c>
       <c r="O17" t="n">
-        <v>3652.262623602566</v>
+        <v>3608.932998940357</v>
       </c>
       <c r="P17" t="n">
-        <v>4101.11004488482</v>
+        <v>4376.361141312379</v>
       </c>
       <c r="Q17" t="n">
-        <v>4600.194859714913</v>
+        <v>4665.254115389166</v>
       </c>
       <c r="R17" t="n">
-        <v>4747.891745302943</v>
+        <v>4747.891745302944</v>
       </c>
       <c r="S17" t="n">
-        <v>4646.343755923061</v>
+        <v>4646.343755923062</v>
       </c>
       <c r="T17" t="n">
-        <v>4442.045485113852</v>
+        <v>4442.045485113854</v>
       </c>
       <c r="U17" t="n">
-        <v>4188.545701281926</v>
+        <v>4188.545701281928</v>
       </c>
       <c r="V17" t="n">
-        <v>3857.482813938355</v>
+        <v>3857.482813938357</v>
       </c>
       <c r="W17" t="n">
-        <v>3504.714158668241</v>
+        <v>3504.714158668242</v>
       </c>
       <c r="X17" t="n">
         <v>3131.248400407163</v>
@@ -5589,22 +5589,22 @@
         <v>106.8974813492384</v>
       </c>
       <c r="I18" t="n">
-        <v>94.95783490605888</v>
+        <v>94.95783490605889</v>
       </c>
       <c r="J18" t="n">
-        <v>153.8879483848809</v>
+        <v>207.6433191506343</v>
       </c>
       <c r="K18" t="n">
-        <v>153.8879483848809</v>
+        <v>478.3955847293974</v>
       </c>
       <c r="L18" t="n">
-        <v>564.2703235155536</v>
+        <v>888.7779598600702</v>
       </c>
       <c r="M18" t="n">
-        <v>1062.524066979184</v>
+        <v>1387.031703323701</v>
       </c>
       <c r="N18" t="n">
-        <v>1588.373749347759</v>
+        <v>1912.881385692276</v>
       </c>
       <c r="O18" t="n">
         <v>2047.203680442057</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>349.1684121013667</v>
+        <v>725.3280680057245</v>
       </c>
       <c r="C19" t="n">
-        <v>180.2322291734599</v>
+        <v>556.3918850778176</v>
       </c>
       <c r="D19" t="n">
-        <v>180.2322291734599</v>
+        <v>406.2752456654819</v>
       </c>
       <c r="E19" t="n">
-        <v>180.2322291734602</v>
+        <v>262.4885743349097</v>
       </c>
       <c r="F19" t="n">
-        <v>180.2322291734602</v>
+        <v>262.4885743349097</v>
       </c>
       <c r="G19" t="n">
-        <v>180.2322291734602</v>
+        <v>94.95783490605889</v>
       </c>
       <c r="H19" t="n">
-        <v>180.2322291734602</v>
+        <v>94.95783490605889</v>
       </c>
       <c r="I19" t="n">
-        <v>94.95783490605888</v>
+        <v>94.95783490605889</v>
       </c>
       <c r="J19" t="n">
-        <v>152.0056104320349</v>
+        <v>152.005610432035</v>
       </c>
       <c r="K19" t="n">
         <v>375.5894667189773</v>
       </c>
       <c r="L19" t="n">
-        <v>717.226260141709</v>
+        <v>717.2262601417088</v>
       </c>
       <c r="M19" t="n">
         <v>1087.823480887445</v>
@@ -5689,34 +5689,34 @@
         <v>1778.214029233591</v>
       </c>
       <c r="P19" t="n">
-        <v>2031.221697279898</v>
+        <v>2031.221697279897</v>
       </c>
       <c r="Q19" t="n">
         <v>2122.95601206441</v>
       </c>
       <c r="R19" t="n">
-        <v>2040.863670581426</v>
+        <v>2122.95601206441</v>
       </c>
       <c r="S19" t="n">
-        <v>1852.17697118604</v>
+        <v>1934.269312669024</v>
       </c>
       <c r="T19" t="n">
-        <v>1631.145680140313</v>
+        <v>1934.269312669024</v>
       </c>
       <c r="U19" t="n">
-        <v>1342.052200385762</v>
+        <v>1645.175832914472</v>
       </c>
       <c r="V19" t="n">
-        <v>1087.367712179875</v>
+        <v>1645.175832914472</v>
       </c>
       <c r="W19" t="n">
-        <v>797.9505421429142</v>
+        <v>1355.758662877512</v>
       </c>
       <c r="X19" t="n">
-        <v>569.9609912448968</v>
+        <v>1127.769111979494</v>
       </c>
       <c r="Y19" t="n">
-        <v>349.1684121013667</v>
+        <v>906.9765328359642</v>
       </c>
     </row>
     <row r="20">
@@ -5726,55 +5726,55 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2354.509228367229</v>
+        <v>2354.509228367227</v>
       </c>
       <c r="C20" t="n">
-        <v>1985.546711426817</v>
+        <v>1985.546711426816</v>
       </c>
       <c r="D20" t="n">
-        <v>1627.281012820067</v>
+        <v>1627.281012820066</v>
       </c>
       <c r="E20" t="n">
-        <v>1241.492760221823</v>
+        <v>1241.492760221822</v>
       </c>
       <c r="F20" t="n">
-        <v>830.5068554322152</v>
+        <v>830.5068554322143</v>
       </c>
       <c r="G20" t="n">
-        <v>415.8180664551829</v>
+        <v>415.8180664551819</v>
       </c>
       <c r="H20" t="n">
         <v>122.1636361028493</v>
       </c>
       <c r="I20" t="n">
-        <v>94.95783490605888</v>
+        <v>94.95783490605889</v>
       </c>
       <c r="J20" t="n">
-        <v>315.7517297871444</v>
+        <v>483.1573788074975</v>
       </c>
       <c r="K20" t="n">
-        <v>1018.307019992528</v>
+        <v>1185.712669012881</v>
       </c>
       <c r="L20" t="n">
-        <v>1829.171353524523</v>
+        <v>1696.086655838285</v>
       </c>
       <c r="M20" t="n">
-        <v>2428.730189851163</v>
+        <v>2295.645492164925</v>
       </c>
       <c r="N20" t="n">
-        <v>3042.604323347866</v>
+        <v>2909.519625661628</v>
       </c>
       <c r="O20" t="n">
-        <v>3608.932998940356</v>
+        <v>3475.848301254119</v>
       </c>
       <c r="P20" t="n">
-        <v>4376.361141312378</v>
+        <v>4243.27644362614</v>
       </c>
       <c r="Q20" t="n">
-        <v>4665.254115389165</v>
+        <v>4600.194859714914</v>
       </c>
       <c r="R20" t="n">
-        <v>4747.891745302943</v>
+        <v>4747.891745302944</v>
       </c>
       <c r="S20" t="n">
         <v>4646.343755923061</v>
@@ -5789,13 +5789,13 @@
         <v>3857.482813938355</v>
       </c>
       <c r="W20" t="n">
-        <v>3504.714158668243</v>
+        <v>3504.714158668241</v>
       </c>
       <c r="X20" t="n">
-        <v>3131.248400407163</v>
+        <v>3131.248400407161</v>
       </c>
       <c r="Y20" t="n">
-        <v>2741.109068431351</v>
+        <v>2741.109068431349</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>106.8974813492384</v>
       </c>
       <c r="I21" t="n">
-        <v>94.95783490605888</v>
+        <v>94.95783490605889</v>
       </c>
       <c r="J21" t="n">
         <v>207.6433191506343</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2114651883998</v>
+        <v>478.3955847293974</v>
       </c>
       <c r="L21" t="n">
-        <v>747.5938403190726</v>
+        <v>888.7779598600702</v>
       </c>
       <c r="M21" t="n">
-        <v>1245.847583782703</v>
+        <v>1387.031703323701</v>
       </c>
       <c r="N21" t="n">
-        <v>1771.697266151278</v>
+        <v>1912.881385692276</v>
       </c>
       <c r="O21" t="n">
-        <v>2230.527197245576</v>
+        <v>2371.711316786574</v>
       </c>
       <c r="P21" t="n">
         <v>2579.445601866743</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>249.6122887541111</v>
+        <v>395.5094981691449</v>
       </c>
       <c r="C22" t="n">
-        <v>249.6122887541111</v>
+        <v>395.5094981691449</v>
       </c>
       <c r="D22" t="n">
-        <v>249.6122887541111</v>
+        <v>395.5094981691449</v>
       </c>
       <c r="E22" t="n">
-        <v>249.6122887541111</v>
+        <v>247.5964045867518</v>
       </c>
       <c r="F22" t="n">
-        <v>102.7223412562007</v>
+        <v>247.5964045867518</v>
       </c>
       <c r="G22" t="n">
-        <v>102.7223412562007</v>
+        <v>94.95783490605889</v>
       </c>
       <c r="H22" t="n">
-        <v>94.95783490605888</v>
+        <v>94.95783490605889</v>
       </c>
       <c r="I22" t="n">
-        <v>94.95783490605888</v>
+        <v>94.95783490605889</v>
       </c>
       <c r="J22" t="n">
-        <v>152.005610432035</v>
+        <v>152.0056104320351</v>
       </c>
       <c r="K22" t="n">
-        <v>375.5894667189774</v>
+        <v>375.5894667189773</v>
       </c>
       <c r="L22" t="n">
-        <v>717.2262601417091</v>
+        <v>717.2262601417088</v>
       </c>
       <c r="M22" t="n">
         <v>1087.823480887445</v>
@@ -5932,28 +5932,28 @@
         <v>2122.95601206441</v>
       </c>
       <c r="R22" t="n">
-        <v>2122.95601206441</v>
+        <v>2040.863670581426</v>
       </c>
       <c r="S22" t="n">
-        <v>1934.269312669024</v>
+        <v>1852.17697118604</v>
       </c>
       <c r="T22" t="n">
-        <v>1713.238021623297</v>
+        <v>1631.145680140313</v>
       </c>
       <c r="U22" t="n">
-        <v>1424.144541868746</v>
+        <v>1342.052200385762</v>
       </c>
       <c r="V22" t="n">
-        <v>1169.460053662859</v>
+        <v>1087.367712179875</v>
       </c>
       <c r="W22" t="n">
-        <v>880.0428836258983</v>
+        <v>797.9505421429147</v>
       </c>
       <c r="X22" t="n">
-        <v>652.0533327278808</v>
+        <v>797.9505421429147</v>
       </c>
       <c r="Y22" t="n">
-        <v>431.2607535843508</v>
+        <v>577.1579629993846</v>
       </c>
     </row>
     <row r="23">
@@ -5984,52 +5984,52 @@
         <v>122.1636361028493</v>
       </c>
       <c r="I23" t="n">
-        <v>94.95783490605888</v>
+        <v>94.95783490605889</v>
       </c>
       <c r="J23" t="n">
-        <v>315.7517297871444</v>
+        <v>483.1573788074975</v>
       </c>
       <c r="K23" t="n">
-        <v>697.4030615470745</v>
+        <v>864.8087105674276</v>
       </c>
       <c r="L23" t="n">
-        <v>1207.777048372478</v>
+        <v>1375.182697392832</v>
       </c>
       <c r="M23" t="n">
-        <v>2252.354282857023</v>
+        <v>2419.759931877376</v>
       </c>
       <c r="N23" t="n">
-        <v>3299.20187152159</v>
+        <v>3150.993203684329</v>
       </c>
       <c r="O23" t="n">
-        <v>3927.513720030124</v>
+        <v>3717.321879276819</v>
       </c>
       <c r="P23" t="n">
-        <v>4376.361141312378</v>
+        <v>4166.169300559073</v>
       </c>
       <c r="Q23" t="n">
-        <v>4665.254115389165</v>
+        <v>4665.254115389166</v>
       </c>
       <c r="R23" t="n">
-        <v>4747.891745302943</v>
+        <v>4747.891745302944</v>
       </c>
       <c r="S23" t="n">
-        <v>4646.343755923061</v>
+        <v>4646.343755923062</v>
       </c>
       <c r="T23" t="n">
-        <v>4442.045485113852</v>
+        <v>4442.045485113854</v>
       </c>
       <c r="U23" t="n">
-        <v>4188.545701281926</v>
+        <v>4188.545701281928</v>
       </c>
       <c r="V23" t="n">
-        <v>3857.482813938355</v>
+        <v>3857.482813938357</v>
       </c>
       <c r="W23" t="n">
-        <v>3504.714158668241</v>
+        <v>3504.714158668243</v>
       </c>
       <c r="X23" t="n">
-        <v>3131.248400407161</v>
+        <v>3131.248400407163</v>
       </c>
       <c r="Y23" t="n">
         <v>2741.109068431351</v>
@@ -6063,7 +6063,7 @@
         <v>106.8974813492384</v>
       </c>
       <c r="I24" t="n">
-        <v>94.95783490605888</v>
+        <v>94.95783490605889</v>
       </c>
       <c r="J24" t="n">
         <v>207.6433191506343</v>
@@ -6081,13 +6081,13 @@
         <v>1912.881385692276</v>
       </c>
       <c r="O24" t="n">
-        <v>2218.177136863526</v>
+        <v>2047.203680442057</v>
       </c>
       <c r="P24" t="n">
-        <v>2567.095541484693</v>
+        <v>2396.122085063224</v>
       </c>
       <c r="Q24" t="n">
-        <v>2567.095541484693</v>
+        <v>2579.445601866743</v>
       </c>
       <c r="R24" t="n">
         <v>2579.445601866743</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>167.5199472711274</v>
+        <v>349.1684121013667</v>
       </c>
       <c r="C25" t="n">
-        <v>167.5199472711274</v>
+        <v>349.1684121013667</v>
       </c>
       <c r="D25" t="n">
-        <v>167.5199472711274</v>
+        <v>349.1684121013667</v>
       </c>
       <c r="E25" t="n">
-        <v>167.5199472711274</v>
+        <v>262.4885743349097</v>
       </c>
       <c r="F25" t="n">
-        <v>167.5199472711274</v>
+        <v>262.4885743349097</v>
       </c>
       <c r="G25" t="n">
-        <v>167.5199472711274</v>
+        <v>94.95783490605889</v>
       </c>
       <c r="H25" t="n">
-        <v>94.95783490605888</v>
+        <v>94.95783490605889</v>
       </c>
       <c r="I25" t="n">
-        <v>94.95783490605888</v>
+        <v>94.95783490605889</v>
       </c>
       <c r="J25" t="n">
         <v>152.005610432035</v>
       </c>
       <c r="K25" t="n">
-        <v>375.5894667189774</v>
+        <v>375.5894667189773</v>
       </c>
       <c r="L25" t="n">
-        <v>717.2262601417091</v>
+        <v>717.226260141709</v>
       </c>
       <c r="M25" t="n">
         <v>1087.823480887445</v>
@@ -6160,22 +6160,22 @@
         <v>1455.043344471218</v>
       </c>
       <c r="O25" t="n">
-        <v>1778.214029233592</v>
+        <v>1778.214029233591</v>
       </c>
       <c r="P25" t="n">
-        <v>2031.221697279898</v>
+        <v>2031.221697279897</v>
       </c>
       <c r="Q25" t="n">
-        <v>2122.95601206441</v>
+        <v>2122.956012064409</v>
       </c>
       <c r="R25" t="n">
-        <v>2040.863670581426</v>
+        <v>2040.863670581425</v>
       </c>
       <c r="S25" t="n">
         <v>1852.17697118604</v>
       </c>
       <c r="T25" t="n">
-        <v>1631.145680140314</v>
+        <v>1631.145680140313</v>
       </c>
       <c r="U25" t="n">
         <v>1342.052200385762</v>
@@ -6184,13 +6184,13 @@
         <v>1087.367712179875</v>
       </c>
       <c r="W25" t="n">
-        <v>797.9505421429146</v>
+        <v>797.9505421429142</v>
       </c>
       <c r="X25" t="n">
-        <v>569.9609912448973</v>
+        <v>569.9609912448968</v>
       </c>
       <c r="Y25" t="n">
-        <v>349.1684121013672</v>
+        <v>349.1684121013667</v>
       </c>
     </row>
     <row r="26">
@@ -6212,46 +6212,46 @@
         <v>1241.492760221823</v>
       </c>
       <c r="F26" t="n">
-        <v>830.5068554322152</v>
+        <v>830.5068554322149</v>
       </c>
       <c r="G26" t="n">
         <v>415.8180664551828</v>
       </c>
       <c r="H26" t="n">
-        <v>122.1636361028493</v>
+        <v>122.1636361028492</v>
       </c>
       <c r="I26" t="n">
         <v>94.95783490605889</v>
       </c>
       <c r="J26" t="n">
-        <v>340.9909800661784</v>
+        <v>315.7517297871445</v>
       </c>
       <c r="K26" t="n">
-        <v>1043.546270271562</v>
+        <v>1018.307019992528</v>
       </c>
       <c r="L26" t="n">
-        <v>1553.920257096966</v>
+        <v>1528.681006817932</v>
       </c>
       <c r="M26" t="n">
-        <v>2153.479093423606</v>
+        <v>2314.337455773067</v>
       </c>
       <c r="N26" t="n">
-        <v>2767.353226920309</v>
+        <v>3361.185044437635</v>
       </c>
       <c r="O26" t="n">
-        <v>3333.681902512799</v>
+        <v>3927.513720030125</v>
       </c>
       <c r="P26" t="n">
-        <v>4101.110044884821</v>
+        <v>4376.361141312379</v>
       </c>
       <c r="Q26" t="n">
-        <v>4600.194859714914</v>
+        <v>4665.254115389166</v>
       </c>
       <c r="R26" t="n">
         <v>4747.891745302944</v>
       </c>
       <c r="S26" t="n">
-        <v>4646.343755923062</v>
+        <v>4646.343755923061</v>
       </c>
       <c r="T26" t="n">
         <v>4442.045485113853</v>
@@ -6303,19 +6303,19 @@
         <v>94.95783490605889</v>
       </c>
       <c r="J27" t="n">
-        <v>94.95783490605889</v>
+        <v>207.6433191506343</v>
       </c>
       <c r="K27" t="n">
-        <v>365.710100484822</v>
+        <v>478.3955847293974</v>
       </c>
       <c r="L27" t="n">
-        <v>776.0924756154948</v>
+        <v>888.7779598600702</v>
       </c>
       <c r="M27" t="n">
-        <v>1062.524066979184</v>
+        <v>1387.031703323701</v>
       </c>
       <c r="N27" t="n">
-        <v>1588.373749347759</v>
+        <v>1912.881385692276</v>
       </c>
       <c r="O27" t="n">
         <v>2047.203680442057</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>388.5512383168541</v>
+        <v>249.6122887541115</v>
       </c>
       <c r="C28" t="n">
-        <v>388.5512383168541</v>
+        <v>249.6122887541114</v>
       </c>
       <c r="D28" t="n">
-        <v>388.5512383168541</v>
+        <v>241.8477824039692</v>
       </c>
       <c r="E28" t="n">
-        <v>386.5348686578503</v>
+        <v>241.8477824039692</v>
       </c>
       <c r="F28" t="n">
-        <v>239.64492115994</v>
+        <v>94.95783490605889</v>
       </c>
       <c r="G28" t="n">
-        <v>239.64492115994</v>
+        <v>94.95783490605889</v>
       </c>
       <c r="H28" t="n">
         <v>94.95783490605889</v>
@@ -6385,10 +6385,10 @@
         <v>152.005610432035</v>
       </c>
       <c r="K28" t="n">
-        <v>375.5894667189773</v>
+        <v>375.5894667189774</v>
       </c>
       <c r="L28" t="n">
-        <v>717.226260141709</v>
+        <v>717.2262601417091</v>
       </c>
       <c r="M28" t="n">
         <v>1087.823480887445</v>
@@ -6400,34 +6400,34 @@
         <v>1778.214029233591</v>
       </c>
       <c r="P28" t="n">
-        <v>2031.221697279898</v>
+        <v>2031.221697279897</v>
       </c>
       <c r="Q28" t="n">
         <v>2122.95601206441</v>
       </c>
       <c r="R28" t="n">
-        <v>2040.863670581425</v>
+        <v>2122.95601206441</v>
       </c>
       <c r="S28" t="n">
-        <v>1852.17697118604</v>
+        <v>1934.269312669024</v>
       </c>
       <c r="T28" t="n">
-        <v>1852.17697118604</v>
+        <v>1713.238021623297</v>
       </c>
       <c r="U28" t="n">
-        <v>1563.083491431488</v>
+        <v>1424.144541868746</v>
       </c>
       <c r="V28" t="n">
-        <v>1308.399003225602</v>
+        <v>1169.460053662859</v>
       </c>
       <c r="W28" t="n">
-        <v>1018.981833188641</v>
+        <v>880.0428836258986</v>
       </c>
       <c r="X28" t="n">
-        <v>790.992282290624</v>
+        <v>652.0533327278813</v>
       </c>
       <c r="Y28" t="n">
-        <v>570.1997031470938</v>
+        <v>431.2607535843512</v>
       </c>
     </row>
     <row r="29">
@@ -6452,40 +6452,40 @@
         <v>830.5068554322152</v>
       </c>
       <c r="G29" t="n">
-        <v>415.818066455183</v>
+        <v>415.8180664551829</v>
       </c>
       <c r="H29" t="n">
         <v>122.1636361028493</v>
       </c>
       <c r="I29" t="n">
-        <v>94.95783490605889</v>
+        <v>94.95783490605888</v>
       </c>
       <c r="J29" t="n">
-        <v>340.9909800661784</v>
+        <v>483.1573788074975</v>
       </c>
       <c r="K29" t="n">
-        <v>1043.546270271562</v>
+        <v>864.8087105674275</v>
       </c>
       <c r="L29" t="n">
-        <v>1553.920257096966</v>
+        <v>1375.182697392831</v>
       </c>
       <c r="M29" t="n">
-        <v>2153.479093423606</v>
+        <v>2419.759931877376</v>
       </c>
       <c r="N29" t="n">
-        <v>2767.353226920309</v>
+        <v>3033.634065374079</v>
       </c>
       <c r="O29" t="n">
-        <v>3333.681902512799</v>
+        <v>3927.513720030124</v>
       </c>
       <c r="P29" t="n">
-        <v>4101.110044884821</v>
+        <v>4376.361141312378</v>
       </c>
       <c r="Q29" t="n">
-        <v>4600.194859714914</v>
+        <v>4665.254115389165</v>
       </c>
       <c r="R29" t="n">
-        <v>4747.891745302944</v>
+        <v>4747.891745302943</v>
       </c>
       <c r="S29" t="n">
         <v>4646.343755923062</v>
@@ -6537,7 +6537,7 @@
         <v>106.8974813492384</v>
       </c>
       <c r="I30" t="n">
-        <v>94.95783490605889</v>
+        <v>94.95783490605888</v>
       </c>
       <c r="J30" t="n">
         <v>207.6433191506343</v>
@@ -6546,22 +6546,22 @@
         <v>478.3955847293974</v>
       </c>
       <c r="L30" t="n">
-        <v>747.5938403190726</v>
+        <v>888.7779598600702</v>
       </c>
       <c r="M30" t="n">
-        <v>1245.847583782703</v>
+        <v>1387.031703323701</v>
       </c>
       <c r="N30" t="n">
-        <v>1771.697266151278</v>
+        <v>1912.881385692276</v>
       </c>
       <c r="O30" t="n">
-        <v>2230.527197245576</v>
+        <v>2034.853620060007</v>
       </c>
       <c r="P30" t="n">
-        <v>2579.445601866743</v>
+        <v>2383.772024681174</v>
       </c>
       <c r="Q30" t="n">
-        <v>2579.445601866743</v>
+        <v>2567.095541484693</v>
       </c>
       <c r="R30" t="n">
         <v>2579.445601866743</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>249.6122887541117</v>
+        <v>840.7400321232667</v>
       </c>
       <c r="C31" t="n">
-        <v>249.6122887541117</v>
+        <v>671.8038491953598</v>
       </c>
       <c r="D31" t="n">
-        <v>249.6122887541117</v>
+        <v>521.6872097830241</v>
       </c>
       <c r="E31" t="n">
-        <v>249.6122887541117</v>
+        <v>373.7741162006309</v>
       </c>
       <c r="F31" t="n">
-        <v>187.1080800350676</v>
+        <v>331.7951662889487</v>
       </c>
       <c r="G31" t="n">
-        <v>187.1080800350676</v>
+        <v>331.7951662889487</v>
       </c>
       <c r="H31" t="n">
         <v>187.1080800350676</v>
       </c>
       <c r="I31" t="n">
-        <v>94.95783490605889</v>
+        <v>94.95783490605888</v>
       </c>
       <c r="J31" t="n">
-        <v>152.0056104320351</v>
+        <v>152.005610432035</v>
       </c>
       <c r="K31" t="n">
         <v>375.5894667189773</v>
       </c>
       <c r="L31" t="n">
-        <v>717.226260141709</v>
+        <v>717.2262601417088</v>
       </c>
       <c r="M31" t="n">
         <v>1087.823480887445</v>
@@ -6637,7 +6637,7 @@
         <v>1778.214029233591</v>
       </c>
       <c r="P31" t="n">
-        <v>2031.221697279898</v>
+        <v>2031.221697279897</v>
       </c>
       <c r="Q31" t="n">
         <v>2122.95601206441</v>
@@ -6646,25 +6646,25 @@
         <v>2122.95601206441</v>
       </c>
       <c r="S31" t="n">
-        <v>1934.269312669024</v>
+        <v>2122.95601206441</v>
       </c>
       <c r="T31" t="n">
-        <v>1713.238021623298</v>
+        <v>1901.924721018683</v>
       </c>
       <c r="U31" t="n">
-        <v>1424.144541868747</v>
+        <v>1612.831241264132</v>
       </c>
       <c r="V31" t="n">
-        <v>1169.46005366286</v>
+        <v>1358.146753058245</v>
       </c>
       <c r="W31" t="n">
-        <v>880.0428836258989</v>
+        <v>1068.729583021284</v>
       </c>
       <c r="X31" t="n">
-        <v>652.0533327278815</v>
+        <v>840.7400321232667</v>
       </c>
       <c r="Y31" t="n">
-        <v>431.2607535843514</v>
+        <v>840.7400321232667</v>
       </c>
     </row>
     <row r="32">
@@ -6689,40 +6689,40 @@
         <v>830.5068554322152</v>
       </c>
       <c r="G32" t="n">
-        <v>415.818066455183</v>
+        <v>415.8180664551828</v>
       </c>
       <c r="H32" t="n">
-        <v>122.1636361028495</v>
+        <v>122.1636361028493</v>
       </c>
       <c r="I32" t="n">
-        <v>94.95783490605902</v>
+        <v>94.95783490605889</v>
       </c>
       <c r="J32" t="n">
-        <v>315.7517297871446</v>
+        <v>315.7517297871445</v>
       </c>
       <c r="K32" t="n">
-        <v>697.4030615470747</v>
+        <v>697.4030615470745</v>
       </c>
       <c r="L32" t="n">
-        <v>1207.777048372479</v>
+        <v>1621.261650777424</v>
       </c>
       <c r="M32" t="n">
-        <v>2252.354282857023</v>
+        <v>2665.838885261969</v>
       </c>
       <c r="N32" t="n">
-        <v>3299.201871521591</v>
+        <v>3361.185044437635</v>
       </c>
       <c r="O32" t="n">
-        <v>3865.530547114081</v>
+        <v>3927.513720030125</v>
       </c>
       <c r="P32" t="n">
-        <v>4314.377968396335</v>
+        <v>4376.361141312379</v>
       </c>
       <c r="Q32" t="n">
-        <v>4603.270942473122</v>
+        <v>4665.254115389166</v>
       </c>
       <c r="R32" t="n">
-        <v>4747.891745302951</v>
+        <v>4747.891745302944</v>
       </c>
       <c r="S32" t="n">
         <v>4646.343755923062</v>
@@ -6753,64 +6753,64 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>960.7341089809328</v>
+        <v>960.7341089809325</v>
       </c>
       <c r="C33" t="n">
-        <v>786.2810796998058</v>
+        <v>786.2810796998056</v>
       </c>
       <c r="D33" t="n">
-        <v>637.3466700385545</v>
+        <v>637.3466700385543</v>
       </c>
       <c r="E33" t="n">
-        <v>478.109215033099</v>
+        <v>478.1092150330988</v>
       </c>
       <c r="F33" t="n">
-        <v>331.5746570599839</v>
+        <v>331.5746570599838</v>
       </c>
       <c r="G33" t="n">
-        <v>195.4168337200421</v>
+        <v>195.416833720042</v>
       </c>
       <c r="H33" t="n">
-        <v>106.8974813492385</v>
+        <v>106.8974813492384</v>
       </c>
       <c r="I33" t="n">
-        <v>94.95783490605902</v>
+        <v>94.95783490605889</v>
       </c>
       <c r="J33" t="n">
-        <v>207.6433191506345</v>
+        <v>207.6433191506343</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2114651884003</v>
+        <v>478.3955847293974</v>
       </c>
       <c r="L33" t="n">
-        <v>747.593840319073</v>
+        <v>888.7779598600702</v>
       </c>
       <c r="M33" t="n">
-        <v>1245.847583782704</v>
+        <v>1387.031703323701</v>
       </c>
       <c r="N33" t="n">
-        <v>1771.697266151278</v>
+        <v>1588.373749347759</v>
       </c>
       <c r="O33" t="n">
-        <v>2230.527197245577</v>
+        <v>2047.203680442057</v>
       </c>
       <c r="P33" t="n">
-        <v>2579.445601866744</v>
+        <v>2396.122085063224</v>
       </c>
       <c r="Q33" t="n">
-        <v>2579.445601866744</v>
+        <v>2579.445601866743</v>
       </c>
       <c r="R33" t="n">
-        <v>2579.445601866744</v>
+        <v>2579.445601866743</v>
       </c>
       <c r="S33" t="n">
-        <v>2453.820642396227</v>
+        <v>2453.820642396226</v>
       </c>
       <c r="T33" t="n">
         <v>2262.005051742579</v>
       </c>
       <c r="U33" t="n">
-        <v>2033.950709931432</v>
+        <v>2033.950709931431</v>
       </c>
       <c r="V33" t="n">
         <v>1798.798601699689</v>
@@ -6819,7 +6819,7 @@
         <v>1544.561244971487</v>
       </c>
       <c r="X33" t="n">
-        <v>1336.709744765955</v>
+        <v>1336.709744765954</v>
       </c>
       <c r="Y33" t="n">
         <v>1128.949446001001</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>249.6122887541119</v>
+        <v>407.1756605887908</v>
       </c>
       <c r="C34" t="n">
-        <v>249.6122887541119</v>
+        <v>407.1756605887908</v>
       </c>
       <c r="D34" t="n">
-        <v>99.49564934177623</v>
+        <v>407.1756605887908</v>
       </c>
       <c r="E34" t="n">
-        <v>99.49564934177623</v>
+        <v>407.1756605887908</v>
       </c>
       <c r="F34" t="n">
-        <v>99.49564934177623</v>
+        <v>407.1756605887908</v>
       </c>
       <c r="G34" t="n">
-        <v>99.49564934177623</v>
+        <v>239.64492115994</v>
       </c>
       <c r="H34" t="n">
-        <v>94.95783490605902</v>
+        <v>94.95783490605889</v>
       </c>
       <c r="I34" t="n">
-        <v>94.95783490605902</v>
+        <v>94.95783490605889</v>
       </c>
       <c r="J34" t="n">
-        <v>152.0056104320352</v>
+        <v>152.005610432035</v>
       </c>
       <c r="K34" t="n">
-        <v>375.5894667189775</v>
+        <v>375.5894667189773</v>
       </c>
       <c r="L34" t="n">
-        <v>717.2262601417092</v>
+        <v>717.226260141709</v>
       </c>
       <c r="M34" t="n">
         <v>1087.823480887445</v>
@@ -6874,34 +6874,34 @@
         <v>1778.214029233591</v>
       </c>
       <c r="P34" t="n">
-        <v>2031.221697279897</v>
+        <v>2031.221697279898</v>
       </c>
       <c r="Q34" t="n">
         <v>2122.95601206441</v>
       </c>
       <c r="R34" t="n">
-        <v>2122.95601206441</v>
+        <v>2040.863670581426</v>
       </c>
       <c r="S34" t="n">
-        <v>1934.269312669024</v>
+        <v>1852.17697118604</v>
       </c>
       <c r="T34" t="n">
-        <v>1713.238021623297</v>
+        <v>1642.811842559959</v>
       </c>
       <c r="U34" t="n">
-        <v>1424.144541868746</v>
+        <v>1353.718362805408</v>
       </c>
       <c r="V34" t="n">
-        <v>1169.460053662859</v>
+        <v>1099.033874599521</v>
       </c>
       <c r="W34" t="n">
-        <v>880.0428836258982</v>
+        <v>809.6167045625605</v>
       </c>
       <c r="X34" t="n">
-        <v>652.0533327278808</v>
+        <v>809.6167045625605</v>
       </c>
       <c r="Y34" t="n">
-        <v>431.2607535843516</v>
+        <v>588.8241254190306</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2263.167121117823</v>
+        <v>2263.167121117825</v>
       </c>
       <c r="C35" t="n">
-        <v>1906.706736175235</v>
+        <v>1906.706736175236</v>
       </c>
       <c r="D35" t="n">
-        <v>1560.943169566308</v>
+        <v>1560.943169566309</v>
       </c>
       <c r="E35" t="n">
-        <v>1187.657048965888</v>
+        <v>1187.657048965889</v>
       </c>
       <c r="F35" t="n">
-        <v>789.1732761741039</v>
+        <v>789.173276174105</v>
       </c>
       <c r="G35" t="n">
-        <v>386.9866191948957</v>
+        <v>386.9866191948963</v>
       </c>
       <c r="H35" t="n">
-        <v>105.8343208403858</v>
+        <v>105.834320840386</v>
       </c>
       <c r="I35" t="n">
-        <v>91.13065164141899</v>
+        <v>91.13065164141905</v>
       </c>
       <c r="J35" t="n">
-        <v>368.7946922570767</v>
+        <v>311.9245465225046</v>
       </c>
       <c r="K35" t="n">
-        <v>750.4460240170067</v>
+        <v>852.1871070395694</v>
       </c>
       <c r="L35" t="n">
-        <v>1260.820010842411</v>
+        <v>1362.561093864973</v>
       </c>
       <c r="M35" t="n">
-        <v>1860.378847169051</v>
+        <v>1962.119930191614</v>
       </c>
       <c r="N35" t="n">
-        <v>2474.252980665754</v>
+        <v>2575.994063688317</v>
       </c>
       <c r="O35" t="n">
-        <v>3417.573835708362</v>
+        <v>3142.322739280807</v>
       </c>
       <c r="P35" t="n">
-        <v>4185.001978080384</v>
+        <v>3909.750881652829</v>
       </c>
       <c r="Q35" t="n">
-        <v>4473.894952157171</v>
+        <v>4408.835696482922</v>
       </c>
       <c r="R35" t="n">
-        <v>4556.53258207095</v>
+        <v>4556.532582070952</v>
       </c>
       <c r="S35" t="n">
-        <v>4467.486724688891</v>
+        <v>4467.486724688893</v>
       </c>
       <c r="T35" t="n">
-        <v>4275.690585877506</v>
+        <v>4275.690585877508</v>
       </c>
       <c r="U35" t="n">
-        <v>4034.692934043404</v>
+        <v>4034.692934043405</v>
       </c>
       <c r="V35" t="n">
-        <v>3716.132178697656</v>
+        <v>3716.132178697658</v>
       </c>
       <c r="W35" t="n">
-        <v>3375.865655425366</v>
+        <v>3375.865655425368</v>
       </c>
       <c r="X35" t="n">
-        <v>3014.90202916211</v>
+        <v>3014.902029162111</v>
       </c>
       <c r="Y35" t="n">
-        <v>2637.264829184121</v>
+        <v>2637.264829184123</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7008,31 @@
         <v>191.5896504554021</v>
       </c>
       <c r="H36" t="n">
-        <v>103.0702980845985</v>
+        <v>103.0702980845986</v>
       </c>
       <c r="I36" t="n">
-        <v>91.13065164141899</v>
+        <v>91.13065164141905</v>
       </c>
       <c r="J36" t="n">
-        <v>203.8161358859945</v>
+        <v>91.13065164141905</v>
       </c>
       <c r="K36" t="n">
-        <v>474.5684014647575</v>
+        <v>361.8829172201821</v>
       </c>
       <c r="L36" t="n">
-        <v>884.9507765954303</v>
+        <v>772.2652923508549</v>
       </c>
       <c r="M36" t="n">
-        <v>1383.204520059061</v>
+        <v>1058.696883714545</v>
       </c>
       <c r="N36" t="n">
-        <v>1909.054202427636</v>
+        <v>1584.546566083119</v>
       </c>
       <c r="O36" t="n">
-        <v>2367.884133521934</v>
+        <v>2043.376497177418</v>
       </c>
       <c r="P36" t="n">
-        <v>2575.618418602104</v>
+        <v>2392.294901798585</v>
       </c>
       <c r="Q36" t="n">
         <v>2575.618418602104</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>719.5695687854135</v>
+        <v>751.6754485335559</v>
       </c>
       <c r="C37" t="n">
-        <v>719.5695687854135</v>
+        <v>595.2413976034725</v>
       </c>
       <c r="D37" t="n">
-        <v>581.9550613709014</v>
+        <v>457.6268901889602</v>
       </c>
       <c r="E37" t="n">
-        <v>446.544099786332</v>
+        <v>457.6268901889602</v>
       </c>
       <c r="F37" t="n">
-        <v>312.1562842862453</v>
+        <v>457.6268901889602</v>
       </c>
       <c r="G37" t="n">
-        <v>302.9637190286616</v>
+        <v>302.5982827579328</v>
       </c>
       <c r="H37" t="n">
-        <v>170.7787647726041</v>
+        <v>170.7787647726043</v>
       </c>
       <c r="I37" t="n">
-        <v>91.13065164141899</v>
+        <v>91.13065164141905</v>
       </c>
       <c r="J37" t="n">
         <v>160.431766738462</v>
       </c>
       <c r="K37" t="n">
-        <v>396.2689625964713</v>
+        <v>396.2689625964711</v>
       </c>
       <c r="L37" t="n">
         <v>750.1590955902695</v>
       </c>
       <c r="M37" t="n">
-        <v>1133.009655907073</v>
+        <v>1133.009655907072</v>
       </c>
       <c r="N37" t="n">
         <v>1512.482859061912</v>
       </c>
       <c r="O37" t="n">
-        <v>1847.906883395353</v>
+        <v>1847.906883395352</v>
       </c>
       <c r="P37" t="n">
-        <v>2113.167891012726</v>
+        <v>2113.167891012725</v>
       </c>
       <c r="Q37" t="n">
-        <v>2217.155545368305</v>
+        <v>2217.155545368304</v>
       </c>
       <c r="R37" t="n">
         <v>2147.565335883144</v>
       </c>
       <c r="S37" t="n">
-        <v>2147.565335883144</v>
+        <v>1971.380768485581</v>
       </c>
       <c r="T37" t="n">
-        <v>1939.036176835241</v>
+        <v>1762.851609437678</v>
       </c>
       <c r="U37" t="n">
-        <v>1662.444829078514</v>
+        <v>1486.26026168095</v>
       </c>
       <c r="V37" t="n">
-        <v>1420.262472870451</v>
+        <v>1244.077905472887</v>
       </c>
       <c r="W37" t="n">
-        <v>1143.347434831314</v>
+        <v>967.1628674337499</v>
       </c>
       <c r="X37" t="n">
-        <v>927.86001593112</v>
+        <v>751.6754485335559</v>
       </c>
       <c r="Y37" t="n">
-        <v>719.5695687854135</v>
+        <v>751.6754485335559</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2263.167121117823</v>
+        <v>2263.167121117826</v>
       </c>
       <c r="C38" t="n">
-        <v>1906.706736175235</v>
+        <v>1906.706736175238</v>
       </c>
       <c r="D38" t="n">
-        <v>1560.943169566308</v>
+        <v>1560.943169566311</v>
       </c>
       <c r="E38" t="n">
-        <v>1187.657048965888</v>
+        <v>1187.65704896589</v>
       </c>
       <c r="F38" t="n">
-        <v>789.1732761741035</v>
+        <v>789.1732761741061</v>
       </c>
       <c r="G38" t="n">
-        <v>386.986619194895</v>
+        <v>386.9866191948962</v>
       </c>
       <c r="H38" t="n">
-        <v>105.8343208403859</v>
+        <v>105.834320840386</v>
       </c>
       <c r="I38" t="n">
-        <v>91.13065164141899</v>
+        <v>91.13065164141905</v>
       </c>
       <c r="J38" t="n">
-        <v>479.3301955428576</v>
+        <v>479.3301955428577</v>
       </c>
       <c r="K38" t="n">
-        <v>1170.767828129334</v>
+        <v>860.9815273027878</v>
       </c>
       <c r="L38" t="n">
-        <v>1681.141814954738</v>
+        <v>1784.840116533138</v>
       </c>
       <c r="M38" t="n">
-        <v>2280.700651281379</v>
+        <v>2384.398952859778</v>
       </c>
       <c r="N38" t="n">
-        <v>2894.574784778082</v>
+        <v>2998.273086356481</v>
       </c>
       <c r="O38" t="n">
-        <v>3460.903460370572</v>
+        <v>3564.601761948972</v>
       </c>
       <c r="P38" t="n">
-        <v>3909.750881652826</v>
+        <v>4013.449183231226</v>
       </c>
       <c r="Q38" t="n">
-        <v>4408.835696482919</v>
+        <v>4408.835696482922</v>
       </c>
       <c r="R38" t="n">
-        <v>4556.53258207095</v>
+        <v>4556.532582070952</v>
       </c>
       <c r="S38" t="n">
-        <v>4467.486724688891</v>
+        <v>4467.486724688893</v>
       </c>
       <c r="T38" t="n">
-        <v>4275.690585877506</v>
+        <v>4275.690585877509</v>
       </c>
       <c r="U38" t="n">
-        <v>4034.692934043404</v>
+        <v>4034.692934043407</v>
       </c>
       <c r="V38" t="n">
-        <v>3716.132178697656</v>
+        <v>3716.13217869766</v>
       </c>
       <c r="W38" t="n">
-        <v>3375.865655425366</v>
+        <v>3375.865655425369</v>
       </c>
       <c r="X38" t="n">
-        <v>3014.90202916211</v>
+        <v>3014.902029162113</v>
       </c>
       <c r="Y38" t="n">
-        <v>2637.264829184121</v>
+        <v>2637.264829184125</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>191.5896504554021</v>
       </c>
       <c r="H39" t="n">
-        <v>103.0702980845985</v>
+        <v>103.0702980845986</v>
       </c>
       <c r="I39" t="n">
-        <v>91.13065164141899</v>
+        <v>91.13065164141905</v>
       </c>
       <c r="J39" t="n">
         <v>203.8161358859945</v>
       </c>
       <c r="K39" t="n">
-        <v>474.5684014647575</v>
+        <v>474.5684014647576</v>
       </c>
       <c r="L39" t="n">
-        <v>884.9507765954303</v>
+        <v>884.9507765954304</v>
       </c>
       <c r="M39" t="n">
-        <v>1383.204520059061</v>
+        <v>1058.696883714545</v>
       </c>
       <c r="N39" t="n">
-        <v>1767.870082886638</v>
+        <v>1584.546566083119</v>
       </c>
       <c r="O39" t="n">
-        <v>2226.700013980937</v>
+        <v>2043.376497177418</v>
       </c>
       <c r="P39" t="n">
-        <v>2575.618418602104</v>
+        <v>2392.294901798585</v>
       </c>
       <c r="Q39" t="n">
         <v>2575.618418602104</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>752.0408848042845</v>
+        <v>675.6187790016116</v>
       </c>
       <c r="C40" t="n">
-        <v>595.6068338742011</v>
+        <v>519.1847280715283</v>
       </c>
       <c r="D40" t="n">
-        <v>457.992326459689</v>
+        <v>381.5702206570161</v>
       </c>
       <c r="E40" t="n">
-        <v>457.992326459689</v>
+        <v>246.1592590724464</v>
       </c>
       <c r="F40" t="n">
-        <v>457.992326459689</v>
+        <v>246.1592590724464</v>
       </c>
       <c r="G40" t="n">
-        <v>302.9637190286617</v>
+        <v>91.13065164141905</v>
       </c>
       <c r="H40" t="n">
-        <v>170.7787647726042</v>
+        <v>91.13065164141905</v>
       </c>
       <c r="I40" t="n">
-        <v>91.13065164141899</v>
+        <v>91.13065164141905</v>
       </c>
       <c r="J40" t="n">
         <v>160.431766738462</v>
       </c>
       <c r="K40" t="n">
-        <v>396.268962596471</v>
+        <v>396.2689625964711</v>
       </c>
       <c r="L40" t="n">
         <v>750.1590955902695</v>
       </c>
       <c r="M40" t="n">
-        <v>1133.009655907073</v>
+        <v>1133.009655907072</v>
       </c>
       <c r="N40" t="n">
         <v>1512.482859061912</v>
@@ -7348,34 +7348,34 @@
         <v>1847.906883395352</v>
       </c>
       <c r="P40" t="n">
-        <v>2113.167891012726</v>
+        <v>2113.167891012725</v>
       </c>
       <c r="Q40" t="n">
-        <v>2217.155545368305</v>
+        <v>2217.155545368304</v>
       </c>
       <c r="R40" t="n">
-        <v>2217.155545368305</v>
+        <v>2217.155545368304</v>
       </c>
       <c r="S40" t="n">
-        <v>2040.970977970743</v>
+        <v>2040.970977970742</v>
       </c>
       <c r="T40" t="n">
-        <v>1932.363378540822</v>
+        <v>2040.970977970742</v>
       </c>
       <c r="U40" t="n">
-        <v>1655.772030784095</v>
+        <v>1764.379630214014</v>
       </c>
       <c r="V40" t="n">
-        <v>1413.589674576031</v>
+        <v>1545.458015919066</v>
       </c>
       <c r="W40" t="n">
-        <v>1136.674636536894</v>
+        <v>1268.542977879928</v>
       </c>
       <c r="X40" t="n">
-        <v>921.1872176367006</v>
+        <v>1053.055558979735</v>
       </c>
       <c r="Y40" t="n">
-        <v>921.1872176367006</v>
+        <v>844.7651118340279</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2263.167121117824</v>
+        <v>2263.167121117825</v>
       </c>
       <c r="C41" t="n">
-        <v>1906.706736175236</v>
+        <v>1906.706736175237</v>
       </c>
       <c r="D41" t="n">
-        <v>1560.943169566309</v>
+        <v>1560.94316956631</v>
       </c>
       <c r="E41" t="n">
-        <v>1187.657048965888</v>
+        <v>1187.65704896589</v>
       </c>
       <c r="F41" t="n">
-        <v>789.1732761741044</v>
+        <v>789.1732761741055</v>
       </c>
       <c r="G41" t="n">
-        <v>386.9866191948959</v>
+        <v>386.9866191948968</v>
       </c>
       <c r="H41" t="n">
-        <v>105.8343208403859</v>
+        <v>105.834320840386</v>
       </c>
       <c r="I41" t="n">
-        <v>91.13065164141899</v>
+        <v>91.13065164141905</v>
       </c>
       <c r="J41" t="n">
-        <v>368.7946922570767</v>
+        <v>479.3301955428577</v>
       </c>
       <c r="K41" t="n">
-        <v>750.4460240170067</v>
+        <v>860.9815273027878</v>
       </c>
       <c r="L41" t="n">
-        <v>1260.820010842411</v>
+        <v>1371.355514128192</v>
       </c>
       <c r="M41" t="n">
-        <v>1860.378847169051</v>
+        <v>2415.932748612736</v>
       </c>
       <c r="N41" t="n">
-        <v>2474.252980665754</v>
+        <v>3029.806882109439</v>
       </c>
       <c r="O41" t="n">
-        <v>3417.573835708362</v>
+        <v>3671.095301123881</v>
       </c>
       <c r="P41" t="n">
-        <v>4185.001978080384</v>
+        <v>4119.942722406135</v>
       </c>
       <c r="Q41" t="n">
-        <v>4473.894952157171</v>
+        <v>4408.835696482922</v>
       </c>
       <c r="R41" t="n">
-        <v>4556.53258207095</v>
+        <v>4556.532582070952</v>
       </c>
       <c r="S41" t="n">
-        <v>4467.486724688891</v>
+        <v>4467.486724688893</v>
       </c>
       <c r="T41" t="n">
-        <v>4275.690585877506</v>
+        <v>4275.690585877509</v>
       </c>
       <c r="U41" t="n">
-        <v>4034.692934043404</v>
+        <v>4034.692934043406</v>
       </c>
       <c r="V41" t="n">
-        <v>3716.132178697657</v>
+        <v>3716.132178697659</v>
       </c>
       <c r="W41" t="n">
-        <v>3375.865655425366</v>
+        <v>3375.865655425368</v>
       </c>
       <c r="X41" t="n">
-        <v>3014.90202916211</v>
+        <v>3014.902029162112</v>
       </c>
       <c r="Y41" t="n">
-        <v>2637.264829184122</v>
+        <v>2637.264829184124</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7482,31 @@
         <v>191.5896504554021</v>
       </c>
       <c r="H42" t="n">
-        <v>103.0702980845985</v>
+        <v>103.0702980845986</v>
       </c>
       <c r="I42" t="n">
-        <v>91.13065164141899</v>
+        <v>91.13065164141905</v>
       </c>
       <c r="J42" t="n">
-        <v>91.13065164141899</v>
+        <v>203.8161358859945</v>
       </c>
       <c r="K42" t="n">
-        <v>150.0607651202412</v>
+        <v>474.5684014647576</v>
       </c>
       <c r="L42" t="n">
-        <v>560.443140250914</v>
+        <v>884.9507765954304</v>
       </c>
       <c r="M42" t="n">
-        <v>1058.696883714545</v>
+        <v>1383.204520059061</v>
       </c>
       <c r="N42" t="n">
-        <v>1584.546566083119</v>
+        <v>1909.054202427636</v>
       </c>
       <c r="O42" t="n">
-        <v>2043.376497177418</v>
+        <v>2367.884133521934</v>
       </c>
       <c r="P42" t="n">
-        <v>2392.294901798585</v>
+        <v>2575.618418602104</v>
       </c>
       <c r="Q42" t="n">
         <v>2575.618418602104</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>495.3179288120754</v>
+        <v>378.3442133285041</v>
       </c>
       <c r="C43" t="n">
-        <v>495.3179288120754</v>
+        <v>378.3442133285041</v>
       </c>
       <c r="D43" t="n">
-        <v>357.7034213975633</v>
+        <v>378.3442133285041</v>
       </c>
       <c r="E43" t="n">
-        <v>357.7034213975633</v>
+        <v>378.3442133285041</v>
       </c>
       <c r="F43" t="n">
-        <v>223.3156058974765</v>
+        <v>378.3442133285041</v>
       </c>
       <c r="G43" t="n">
-        <v>223.3156058974765</v>
+        <v>223.3156058974767</v>
       </c>
       <c r="H43" t="n">
-        <v>91.13065164141899</v>
+        <v>91.13065164141905</v>
       </c>
       <c r="I43" t="n">
-        <v>91.13065164141899</v>
+        <v>91.13065164141905</v>
       </c>
       <c r="J43" t="n">
         <v>160.431766738462</v>
       </c>
       <c r="K43" t="n">
-        <v>396.2689625964713</v>
+        <v>396.2689625964711</v>
       </c>
       <c r="L43" t="n">
-        <v>750.1590955902698</v>
+        <v>750.1590955902694</v>
       </c>
       <c r="M43" t="n">
-        <v>1133.009655907073</v>
+        <v>1133.009655907072</v>
       </c>
       <c r="N43" t="n">
         <v>1512.482859061912</v>
@@ -7585,34 +7585,34 @@
         <v>1847.906883395352</v>
       </c>
       <c r="P43" t="n">
-        <v>2113.167891012726</v>
+        <v>2113.167891012725</v>
       </c>
       <c r="Q43" t="n">
-        <v>2217.155545368305</v>
+        <v>2217.155545368304</v>
       </c>
       <c r="R43" t="n">
-        <v>2217.155545368305</v>
+        <v>2147.565335883144</v>
       </c>
       <c r="S43" t="n">
-        <v>2040.970977970743</v>
+        <v>1971.380768485581</v>
       </c>
       <c r="T43" t="n">
-        <v>1832.441818922839</v>
+        <v>1762.851609437679</v>
       </c>
       <c r="U43" t="n">
-        <v>1555.850471166111</v>
+        <v>1490.365806454022</v>
       </c>
       <c r="V43" t="n">
-        <v>1313.668114958048</v>
+        <v>1248.183450245958</v>
       </c>
       <c r="W43" t="n">
-        <v>1036.753076918911</v>
+        <v>971.2684122068208</v>
       </c>
       <c r="X43" t="n">
-        <v>821.2656580187172</v>
+        <v>755.7809933066269</v>
       </c>
       <c r="Y43" t="n">
-        <v>664.4642616444916</v>
+        <v>547.4905461609203</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2263.167121117824</v>
+        <v>2263.167121117825</v>
       </c>
       <c r="C44" t="n">
-        <v>1906.706736175236</v>
+        <v>1906.706736175237</v>
       </c>
       <c r="D44" t="n">
-        <v>1560.943169566309</v>
+        <v>1560.94316956631</v>
       </c>
       <c r="E44" t="n">
-        <v>1187.657048965888</v>
+        <v>1187.657048965889</v>
       </c>
       <c r="F44" t="n">
-        <v>789.1732761741044</v>
+        <v>789.1732761741049</v>
       </c>
       <c r="G44" t="n">
-        <v>386.9866191948959</v>
+        <v>386.9866191948962</v>
       </c>
       <c r="H44" t="n">
-        <v>105.8343208403859</v>
+        <v>105.834320840386</v>
       </c>
       <c r="I44" t="n">
-        <v>91.13065164141899</v>
+        <v>91.13065164141905</v>
       </c>
       <c r="J44" t="n">
-        <v>424.8829132617415</v>
+        <v>311.9245465225046</v>
       </c>
       <c r="K44" t="n">
-        <v>1127.438203467125</v>
+        <v>693.5758782824346</v>
       </c>
       <c r="L44" t="n">
-        <v>1637.812190292529</v>
+        <v>1617.434467512785</v>
       </c>
       <c r="M44" t="n">
-        <v>2237.371026619169</v>
+        <v>2216.993303839425</v>
       </c>
       <c r="N44" t="n">
-        <v>2851.245160115872</v>
+        <v>2830.867437336128</v>
       </c>
       <c r="O44" t="n">
-        <v>3417.573835708362</v>
+        <v>3397.196112928618</v>
       </c>
       <c r="P44" t="n">
-        <v>4185.001978080384</v>
+        <v>4164.62425530064</v>
       </c>
       <c r="Q44" t="n">
-        <v>4473.894952157171</v>
+        <v>4453.517229377427</v>
       </c>
       <c r="R44" t="n">
-        <v>4556.53258207095</v>
+        <v>4556.532582070952</v>
       </c>
       <c r="S44" t="n">
-        <v>4467.486724688891</v>
+        <v>4467.486724688893</v>
       </c>
       <c r="T44" t="n">
-        <v>4275.690585877506</v>
+        <v>4275.690585877509</v>
       </c>
       <c r="U44" t="n">
-        <v>4034.692934043404</v>
+        <v>4034.692934043407</v>
       </c>
       <c r="V44" t="n">
-        <v>3716.132178697657</v>
+        <v>3716.132178697658</v>
       </c>
       <c r="W44" t="n">
-        <v>3375.865655425367</v>
+        <v>3375.865655425368</v>
       </c>
       <c r="X44" t="n">
-        <v>3014.90202916211</v>
+        <v>3014.902029162111</v>
       </c>
       <c r="Y44" t="n">
-        <v>2637.264829184122</v>
+        <v>2637.264829184123</v>
       </c>
     </row>
     <row r="45">
@@ -7719,22 +7719,22 @@
         <v>191.5896504554021</v>
       </c>
       <c r="H45" t="n">
-        <v>103.0702980845985</v>
+        <v>103.0702980845986</v>
       </c>
       <c r="I45" t="n">
-        <v>91.13065164141899</v>
+        <v>91.13065164141905</v>
       </c>
       <c r="J45" t="n">
-        <v>203.8161358859945</v>
+        <v>91.13065164141905</v>
       </c>
       <c r="K45" t="n">
-        <v>474.5684014647575</v>
+        <v>361.8829172201821</v>
       </c>
       <c r="L45" t="n">
-        <v>560.443140250914</v>
+        <v>772.2652923508549</v>
       </c>
       <c r="M45" t="n">
-        <v>1058.696883714545</v>
+        <v>1270.519035814486</v>
       </c>
       <c r="N45" t="n">
         <v>1584.546566083119</v>
@@ -7780,46 +7780,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>461.2183337882011</v>
+        <v>798.2552465035303</v>
       </c>
       <c r="C46" t="n">
-        <v>461.2183337882011</v>
+        <v>641.8211955734469</v>
       </c>
       <c r="D46" t="n">
-        <v>461.2183337882011</v>
+        <v>504.2066881589345</v>
       </c>
       <c r="E46" t="n">
-        <v>325.8073722036314</v>
+        <v>504.2066881589345</v>
       </c>
       <c r="F46" t="n">
-        <v>325.8073722036314</v>
+        <v>378.3442133285041</v>
       </c>
       <c r="G46" t="n">
-        <v>170.7787647726041</v>
+        <v>223.3156058974767</v>
       </c>
       <c r="H46" t="n">
-        <v>170.7787647726041</v>
+        <v>91.13065164141905</v>
       </c>
       <c r="I46" t="n">
-        <v>91.13065164141899</v>
+        <v>91.13065164141905</v>
       </c>
       <c r="J46" t="n">
-        <v>160.431766738462</v>
+        <v>160.4317667384619</v>
       </c>
       <c r="K46" t="n">
-        <v>396.2689625964712</v>
+        <v>396.268962596471</v>
       </c>
       <c r="L46" t="n">
-        <v>750.1590955902698</v>
+        <v>750.1590955902694</v>
       </c>
       <c r="M46" t="n">
         <v>1133.009655907073</v>
       </c>
       <c r="N46" t="n">
-        <v>1512.482859061912</v>
+        <v>1512.482859061913</v>
       </c>
       <c r="O46" t="n">
-        <v>1847.906883395352</v>
+        <v>1847.906883395353</v>
       </c>
       <c r="P46" t="n">
         <v>2113.167891012726</v>
@@ -7831,25 +7831,25 @@
         <v>2147.565335883144</v>
       </c>
       <c r="S46" t="n">
-        <v>1971.380768485582</v>
+        <v>1971.380768485581</v>
       </c>
       <c r="T46" t="n">
-        <v>1762.851609437679</v>
+        <v>1971.380768485581</v>
       </c>
       <c r="U46" t="n">
-        <v>1486.260261680952</v>
+        <v>1694.789420728854</v>
       </c>
       <c r="V46" t="n">
-        <v>1244.077905472888</v>
+        <v>1452.60706452079</v>
       </c>
       <c r="W46" t="n">
-        <v>967.1628674337511</v>
+        <v>1175.692026481653</v>
       </c>
       <c r="X46" t="n">
-        <v>751.6754485335573</v>
+        <v>1175.692026481653</v>
       </c>
       <c r="Y46" t="n">
-        <v>543.3850013878508</v>
+        <v>967.4015793359465</v>
       </c>
     </row>
   </sheetData>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>198.7711372769571</v>
+        <v>140.2042795376258</v>
       </c>
       <c r="L3" t="n">
-        <v>122.1984598562864</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9064735273546</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050834</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>62.60926557176083</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>68.71256768887423</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>91.21061207402545</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>85.29190779040061</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9164,10 +9164,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>84.6804832211667</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9176,16 +9176,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>134.4289875618573</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,13 +9398,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>303.5256027339304</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9419,10 +9419,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>68.71256768887514</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9647,16 +9647,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>118.544584151767</v>
       </c>
       <c r="O23" t="n">
-        <v>62.60926557176106</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>25.49419220104434</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9881,22 +9881,22 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>187.9773864934295</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>25.49419220104434</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>330.8595748116716</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10352,13 +10352,13 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>82.29497543329524</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>62.6092655717683</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>57.44459165108299</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>160.2133623809441</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10598,16 +10598,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,10 +10823,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>312.9154553803504</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>107.5692314898072</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>57.44459165108299</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11066,22 +11066,22 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>75.7169125474253</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>114.0993603426635</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>20.58355836338117</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.36076361128511</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8554320345623</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>143.2402153913423</v>
       </c>
       <c r="I13" t="n">
         <v>91.22874267771861</v>
@@ -23464,10 +23464,10 @@
         <v>81.27141806815405</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>179.9943438236179</v>
       </c>
       <c r="T13" t="n">
-        <v>218.8209781352695</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>122.3885150524062</v>
+        <v>139.3259921467161</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.8554320345623</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>143.2402153913423</v>
       </c>
       <c r="I16" t="n">
-        <v>91.22874267771861</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>81.27141806815405</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>186.7998324014319</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>218.8209781352683</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2025449570056</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>4.085158029302789</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.8554320345623</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>143.2402153913423</v>
       </c>
       <c r="I19" t="n">
-        <v>6.807092352991358</v>
+        <v>91.22874267771861</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>81.27141806815405</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>218.8209781352695</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.8554320345623</v>
+        <v>14.74324805067641</v>
       </c>
       <c r="H22" t="n">
-        <v>135.5533541047021</v>
+        <v>143.2402153913423</v>
       </c>
       <c r="I22" t="n">
         <v>91.22874267771861</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>81.27141806815405</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>60.62092325777651</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.8554320345623</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>71.40372414992447</v>
+        <v>143.2402153913423</v>
       </c>
       <c r="I25" t="n">
         <v>91.22874267771861</v>
@@ -24604,10 +24604,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>140.9286117315715</v>
       </c>
       <c r="E28" t="n">
-        <v>144.4377566841554</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>165.8554320345623</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>143.2402153913423</v>
       </c>
       <c r="I28" t="n">
         <v>91.22874267771861</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>81.27141806815405</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>218.8209781352695</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>83.54188139107762</v>
+        <v>103.8618876103657</v>
       </c>
       <c r="G31" t="n">
         <v>165.8554320345623</v>
       </c>
       <c r="H31" t="n">
-        <v>143.2402153913423</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>81.27141806815405</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>186.7998324014319</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25078,7 +25078,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,10 +25087,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.8554320345623</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.7477790999823</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>91.22874267771861</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>81.27141806815405</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>11.54950079544949</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,25 +25309,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>167.4548695040919</v>
+        <v>167.4548695040921</v>
       </c>
       <c r="C37" t="n">
-        <v>154.8697104207824</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>134.0568519687239</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.043937345086</v>
       </c>
       <c r="G37" t="n">
-        <v>144.377681751709</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>0.361781908021868</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>174.4227217235865</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>206.2075426742496</v>
       </c>
     </row>
     <row r="38">
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>134.0568519687238</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>133.0439373450859</v>
+        <v>133.043937345086</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>130.8631047134971</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>78.85163199987339</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,19 +25594,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>68.89430739030871</v>
+        <v>68.89430739030882</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>98.9223440218026</v>
+        <v>206.4438674574243</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>23.02813449398374</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>206.2075426742495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>154.8697104207825</v>
+        <v>154.8697104207826</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>136.2383623403671</v>
       </c>
       <c r="E43" t="n">
-        <v>134.0568519687238</v>
+        <v>134.0568519687239</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>133.043937345086</v>
       </c>
       <c r="G43" t="n">
-        <v>153.478321356717</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>78.85163199987328</v>
+        <v>78.85163199987339</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>68.89430739030871</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>4.064489325339991</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>50.97416026376602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.10986858043866</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>154.8697104207825</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>136.238362340367</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>134.0568519687239</v>
       </c>
       <c r="F46" t="n">
-        <v>133.0439373450859</v>
+        <v>8.440087262959837</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>130.863104713497</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>78.85163199987338</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>206.4438674574243</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>213.3325447111919</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>962341.088421821</v>
+        <v>962341.0884218209</v>
       </c>
     </row>
     <row r="4">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>880960.3067825489</v>
+        <v>880960.3067825487</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>885180.7524637291</v>
+        <v>885180.7524637292</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583907</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="E2" t="n">
+        <v>539036.670359285</v>
+      </c>
+      <c r="F2" t="n">
+        <v>539036.670359285</v>
+      </c>
+      <c r="G2" t="n">
         <v>539036.6703592847</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>539036.6703592846</v>
+      </c>
+      <c r="I2" t="n">
+        <v>539036.6703592846</v>
+      </c>
+      <c r="J2" t="n">
         <v>539036.6703592848</v>
-      </c>
-      <c r="G2" t="n">
-        <v>539036.6703592848</v>
-      </c>
-      <c r="H2" t="n">
-        <v>539036.6703592848</v>
-      </c>
-      <c r="I2" t="n">
-        <v>539036.670359285</v>
-      </c>
-      <c r="J2" t="n">
-        <v>539036.6703592847</v>
       </c>
       <c r="K2" t="n">
         <v>539036.6703592847</v>
       </c>
       <c r="L2" t="n">
-        <v>539036.6703592845</v>
+        <v>539036.6703592847</v>
       </c>
       <c r="M2" t="n">
-        <v>543816.9699273087</v>
+        <v>543816.9699273088</v>
       </c>
       <c r="N2" t="n">
+        <v>543816.9699273084</v>
+      </c>
+      <c r="O2" t="n">
         <v>543816.9699273088</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>543816.9699273084</v>
-      </c>
-      <c r="P2" t="n">
-        <v>543816.9699273085</v>
       </c>
     </row>
     <row r="3">
@@ -26366,10 +26366,10 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>440708.0835147473</v>
+        <v>440708.0835147456</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.477441996035229e-11</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>801032.7463245902</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113916</v>
+        <v>72254.6948711391</v>
       </c>
       <c r="K3" t="n">
-        <v>102466.1171957471</v>
+        <v>102466.1171957466</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>125743.1394183518</v>
+        <v>125743.1394183522</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>342104.9357195593</v>
       </c>
       <c r="C4" t="n">
-        <v>218780.3249983346</v>
+        <v>218780.324998335</v>
       </c>
       <c r="D4" t="n">
-        <v>218780.3249983351</v>
+        <v>218780.324998335</v>
       </c>
       <c r="E4" t="n">
         <v>23289.0253671801</v>
       </c>
       <c r="F4" t="n">
+        <v>23289.02536718014</v>
+      </c>
+      <c r="G4" t="n">
+        <v>23289.02536718011</v>
+      </c>
+      <c r="H4" t="n">
+        <v>23289.02536718012</v>
+      </c>
+      <c r="I4" t="n">
+        <v>23289.02536718013</v>
+      </c>
+      <c r="J4" t="n">
+        <v>23289.02536718011</v>
+      </c>
+      <c r="K4" t="n">
         <v>23289.0253671801</v>
       </c>
-      <c r="G4" t="n">
-        <v>23289.02536718019</v>
-      </c>
-      <c r="H4" t="n">
-        <v>23289.02536718018</v>
-      </c>
-      <c r="I4" t="n">
-        <v>23289.02536718018</v>
-      </c>
-      <c r="J4" t="n">
-        <v>23289.02536718012</v>
-      </c>
-      <c r="K4" t="n">
-        <v>23289.02536718012</v>
-      </c>
       <c r="L4" t="n">
-        <v>23289.02536717994</v>
+        <v>23289.02536718011</v>
       </c>
       <c r="M4" t="n">
-        <v>32381.42014055845</v>
+        <v>32381.42014055834</v>
       </c>
       <c r="N4" t="n">
-        <v>32381.42014055839</v>
+        <v>32381.42014055828</v>
       </c>
       <c r="O4" t="n">
-        <v>32381.42014055841</v>
+        <v>32381.42014055834</v>
       </c>
       <c r="P4" t="n">
-        <v>32381.4201405584</v>
+        <v>32381.42014055829</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.0780634096</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26479,37 +26479,37 @@
         <v>97984.78026785438</v>
       </c>
       <c r="F5" t="n">
-        <v>97984.78026785438</v>
+        <v>97984.7802678544</v>
       </c>
       <c r="G5" t="n">
-        <v>97984.78026785438</v>
+        <v>97984.7802678544</v>
       </c>
       <c r="H5" t="n">
-        <v>97984.78026785438</v>
+        <v>97984.7802678544</v>
       </c>
       <c r="I5" t="n">
-        <v>97984.78026785438</v>
+        <v>97984.7802678544</v>
       </c>
       <c r="J5" t="n">
         <v>97984.7802678544</v>
       </c>
       <c r="K5" t="n">
+        <v>97984.78026785438</v>
+      </c>
+      <c r="L5" t="n">
         <v>97984.7802678544</v>
       </c>
-      <c r="L5" t="n">
-        <v>97984.7802678545</v>
-      </c>
       <c r="M5" t="n">
-        <v>96116.65230430386</v>
+        <v>96116.65230430389</v>
       </c>
       <c r="N5" t="n">
-        <v>96116.65230430386</v>
+        <v>96116.65230430389</v>
       </c>
       <c r="O5" t="n">
-        <v>96116.65230430386</v>
+        <v>96116.65230430389</v>
       </c>
       <c r="P5" t="n">
-        <v>96116.65230430386</v>
+        <v>96116.65230430389</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34623.53797523829</v>
+        <v>34623.53797523864</v>
       </c>
       <c r="C6" t="n">
-        <v>-188144.2919181004</v>
+        <v>-188144.2919180991</v>
       </c>
       <c r="D6" t="n">
-        <v>252563.7915966485</v>
+        <v>252563.7915966467</v>
       </c>
       <c r="E6" t="n">
-        <v>-383269.88160034</v>
+        <v>-383326.0539125587</v>
       </c>
       <c r="F6" t="n">
-        <v>417762.8647242503</v>
+        <v>417706.6924120315</v>
       </c>
       <c r="G6" t="n">
-        <v>417762.8647242503</v>
+        <v>417706.6924120313</v>
       </c>
       <c r="H6" t="n">
-        <v>417762.8647242503</v>
+        <v>417706.6924120312</v>
       </c>
       <c r="I6" t="n">
-        <v>417762.8647242504</v>
+        <v>417706.6924120312</v>
       </c>
       <c r="J6" t="n">
-        <v>345508.1698531111</v>
+        <v>345451.9975408923</v>
       </c>
       <c r="K6" t="n">
-        <v>315296.7475285032</v>
+        <v>315240.5752162847</v>
       </c>
       <c r="L6" t="n">
-        <v>417762.86472425</v>
+        <v>417706.6924120313</v>
       </c>
       <c r="M6" t="n">
-        <v>289575.7580640946</v>
+        <v>289537.2905650903</v>
       </c>
       <c r="N6" t="n">
-        <v>415318.8974824466</v>
+        <v>415280.4299834422</v>
       </c>
       <c r="O6" t="n">
-        <v>415318.8974824462</v>
+        <v>415280.4299834426</v>
       </c>
       <c r="P6" t="n">
-        <v>415318.8974824463</v>
+        <v>415280.4299834422</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>12.37711067784539</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="N2" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="O2" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="P2" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>377.743664217088</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26790,7 +26790,7 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545572</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26817,19 +26817,19 @@
         <v>1186.972936325736</v>
       </c>
       <c r="L4" t="n">
-        <v>1186.972936325738</v>
+        <v>1186.972936325736</v>
       </c>
       <c r="M4" t="n">
-        <v>1139.133145517737</v>
+        <v>1139.133145517738</v>
       </c>
       <c r="N4" t="n">
-        <v>1139.133145517737</v>
+        <v>1139.133145517738</v>
       </c>
       <c r="O4" t="n">
-        <v>1139.133145517737</v>
+        <v>1139.133145517738</v>
       </c>
       <c r="P4" t="n">
-        <v>1139.133145517737</v>
+        <v>1139.133145517738</v>
       </c>
     </row>
   </sheetData>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>12.37711067784539</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="N2" t="n">
-        <v>-6.217248937900877e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26960,10 +26960,10 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>342.7224034979627</v>
+        <v>342.7224034979614</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>806.5143972163836</v>
@@ -27012,10 +27012,10 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>398.1307590522017</v>
+        <v>398.1307590522001</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>512.6856635711803</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023557</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>398.1307590522017</v>
+        <v>398.1307590521999</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>464.84587276318</v>
+        <v>464.8458727631822</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,7 +27258,7 @@
         <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>398.1307590522017</v>
+        <v>398.1307590522001</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>78.52652791832747</v>
       </c>
       <c r="E2" t="n">
-        <v>105.7738563699063</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>130.719532039356</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>171.9232912582848</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>338.0329468943008</v>
@@ -27430,13 +27430,13 @@
         <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>52.8746275377444</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>110.0814249536981</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27470,7 +27470,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>199.8611009721718</v>
@@ -27521,10 +27521,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>50.36401603254785</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>20.873153128751</v>
       </c>
     </row>
     <row r="4">
@@ -27537,10 +27537,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>140.7311001689623</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
         <v>161.6656840978772</v>
@@ -27561,7 +27561,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>7.72888296319279</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>295.992947813136</v>
       </c>
       <c r="I5" t="n">
-        <v>69.33174441269789</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27698,7 +27698,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-6.394884621840902e-12</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>3.481659405224491e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853682</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549141</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801577</v>
+        <v>46.76331713866857</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500188</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580842</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>87.98059509815701</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>55.99104848925197</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>254.3766611293532</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28281,7 +28281,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-2.684272557315934e-12</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -28536,7 +28536,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.222133505507372e-12</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1.648459146963432e-12</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29089,7 +29089,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29104,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-6.302798283286392e-12</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>12.37711067784539</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="C35" t="n">
-        <v>12.37711067784539</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="D35" t="n">
-        <v>12.37711067784539</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="E35" t="n">
-        <v>12.37711067784539</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="F35" t="n">
-        <v>12.37711067784539</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="G35" t="n">
-        <v>12.37711067784539</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="H35" t="n">
-        <v>12.37711067784539</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="I35" t="n">
-        <v>12.37711067784539</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>12.37711067784539</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="T35" t="n">
-        <v>12.37711067784539</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="U35" t="n">
-        <v>12.37711067784539</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="V35" t="n">
-        <v>12.37711067784539</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="W35" t="n">
-        <v>12.37711067784539</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="X35" t="n">
-        <v>12.37711067784539</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="Y35" t="n">
-        <v>12.37711067784539</v>
+        <v>12.37711067784523</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>12.37711067784539</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="C37" t="n">
-        <v>12.37711067784539</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="D37" t="n">
-        <v>12.37711067784539</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="E37" t="n">
-        <v>12.37711067784539</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="F37" t="n">
-        <v>12.37711067784539</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="G37" t="n">
-        <v>12.37711067784539</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="H37" t="n">
-        <v>12.37711067784539</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="I37" t="n">
-        <v>12.37711067784539</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="J37" t="n">
-        <v>12.37711067784539</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="K37" t="n">
-        <v>12.37711067784539</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="L37" t="n">
-        <v>12.37711067784539</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="M37" t="n">
-        <v>12.37711067784539</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="N37" t="n">
-        <v>12.37711067784539</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="O37" t="n">
-        <v>12.37711067784539</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="P37" t="n">
-        <v>12.37711067784539</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="Q37" t="n">
-        <v>12.37711067784539</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="R37" t="n">
-        <v>12.37711067784539</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="S37" t="n">
-        <v>12.37711067784539</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="T37" t="n">
-        <v>12.37711067784539</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="U37" t="n">
-        <v>12.37711067784539</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="V37" t="n">
-        <v>12.37711067784539</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="W37" t="n">
-        <v>12.37711067784539</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="X37" t="n">
-        <v>12.37711067784539</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="Y37" t="n">
-        <v>12.37711067784539</v>
+        <v>12.37711067784523</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="C38" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="D38" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="E38" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="F38" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="G38" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784397</v>
       </c>
       <c r="H38" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="I38" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="T38" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="U38" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="V38" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="W38" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="X38" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="Y38" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="C40" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="D40" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="E40" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="F40" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="G40" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="H40" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="I40" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="J40" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="K40" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="L40" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="M40" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="N40" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="O40" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="P40" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="Q40" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="R40" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="S40" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="T40" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="U40" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="V40" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="W40" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="X40" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="Y40" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="C41" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="D41" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="E41" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="F41" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="G41" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="H41" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="I41" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="T41" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="U41" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="V41" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="W41" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="X41" t="n">
-        <v>12.37711067784591</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="Y41" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="C43" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="D43" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="E43" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="F43" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="G43" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="H43" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="I43" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="J43" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="K43" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="L43" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="M43" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="N43" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="O43" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="P43" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="Q43" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="R43" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="S43" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="T43" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="U43" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="V43" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="W43" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="X43" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="Y43" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="C44" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="D44" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="E44" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="F44" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="G44" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="H44" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="I44" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="T44" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="U44" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="V44" t="n">
-        <v>12.37711067784574</v>
+        <v>12.37711067784392</v>
       </c>
       <c r="W44" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="X44" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="Y44" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="C46" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="D46" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="E46" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="F46" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="G46" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="H46" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="I46" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="J46" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="K46" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="L46" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="M46" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="N46" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="O46" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="P46" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="Q46" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="R46" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="S46" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="T46" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="U46" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="V46" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="W46" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="X46" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
       <c r="Y46" t="n">
-        <v>12.37711067784533</v>
+        <v>12.37711067784523</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340051</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141005</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554487</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
-        <v>128.886517872744</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081584</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630678</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405377</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338314</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119875</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954674</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044143</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633831</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727395</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473577</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472041</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141138</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188942</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890699</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396504</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649106</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478014</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983129</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736708</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923054</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479583</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639069</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727035</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131478</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372677</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619172</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078635</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644464</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492012</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813595</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302268</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246927</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917254</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666598</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175878</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.3852739138383</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678029</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701175</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
-        <v>11.8710590869534</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197234</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315624</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31841,10 +31841,10 @@
         <v>240.6613481258338</v>
       </c>
       <c r="K12" t="n">
-        <v>411.3285759226045</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>225.296540169931</v>
+        <v>553.0820314270184</v>
       </c>
       <c r="M12" t="n">
         <v>645.4206434812412</v>
@@ -31859,7 +31859,7 @@
         <v>486.417240365004</v>
       </c>
       <c r="Q12" t="n">
-        <v>325.1570435845256</v>
+        <v>270.8586892756836</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32084,7 +32084,7 @@
         <v>553.0820314270184</v>
       </c>
       <c r="M15" t="n">
-        <v>645.4206434812412</v>
+        <v>502.8104217226577</v>
       </c>
       <c r="N15" t="n">
         <v>662.5030074051259</v>
@@ -32093,7 +32093,7 @@
         <v>606.0608213073722</v>
       </c>
       <c r="P15" t="n">
-        <v>343.8070186064203</v>
+        <v>486.417240365004</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32312,10 +32312,10 @@
         <v>87.70213002125229</v>
       </c>
       <c r="J18" t="n">
-        <v>186.3629938169919</v>
+        <v>240.6613481258338</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>411.3285759226045</v>
       </c>
       <c r="L18" t="n">
         <v>553.0820314270184</v>
@@ -32327,7 +32327,7 @@
         <v>662.5030074051259</v>
       </c>
       <c r="O18" t="n">
-        <v>606.0608213073722</v>
+        <v>278.2753300502844</v>
       </c>
       <c r="P18" t="n">
         <v>486.417240365004</v>
@@ -32552,7 +32552,7 @@
         <v>240.6613481258338</v>
       </c>
       <c r="K21" t="n">
-        <v>268.7183541640211</v>
+        <v>411.3285759226045</v>
       </c>
       <c r="L21" t="n">
         <v>553.0820314270184</v>
@@ -32567,7 +32567,7 @@
         <v>606.0608213073722</v>
       </c>
       <c r="P21" t="n">
-        <v>486.417240365004</v>
+        <v>343.8070186064203</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32801,16 +32801,16 @@
         <v>662.5030074051259</v>
       </c>
       <c r="O24" t="n">
-        <v>450.9757910820709</v>
+        <v>278.2753300502844</v>
       </c>
       <c r="P24" t="n">
         <v>486.417240365004</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>325.1570435845256</v>
       </c>
       <c r="R24" t="n">
-        <v>158.1543124306812</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>47.31446122802588</v>
@@ -33023,7 +33023,7 @@
         <v>87.70213002125229</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>240.6613481258338</v>
       </c>
       <c r="K27" t="n">
         <v>411.3285759226045</v>
@@ -33032,13 +33032,13 @@
         <v>553.0820314270184</v>
       </c>
       <c r="M27" t="n">
-        <v>431.4588736833208</v>
+        <v>645.4206434812412</v>
       </c>
       <c r="N27" t="n">
         <v>662.5030074051259</v>
       </c>
       <c r="O27" t="n">
-        <v>606.0608213073722</v>
+        <v>278.2753300502844</v>
       </c>
       <c r="P27" t="n">
         <v>486.417240365004</v>
@@ -33266,7 +33266,7 @@
         <v>411.3285759226045</v>
       </c>
       <c r="L30" t="n">
-        <v>410.471809668435</v>
+        <v>553.0820314270184</v>
       </c>
       <c r="M30" t="n">
         <v>645.4206434812412</v>
@@ -33275,16 +33275,16 @@
         <v>662.5030074051259</v>
       </c>
       <c r="O30" t="n">
-        <v>606.0608213073722</v>
+        <v>265.8005215835669</v>
       </c>
       <c r="P30" t="n">
         <v>486.417240365004</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>325.1570435845256</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>158.1543124306812</v>
       </c>
       <c r="S30" t="n">
         <v>47.31446122802588</v>
@@ -33500,7 +33500,7 @@
         <v>240.6613481258338</v>
       </c>
       <c r="K33" t="n">
-        <v>268.7183541640214</v>
+        <v>411.3285759226045</v>
       </c>
       <c r="L33" t="n">
         <v>553.0820314270184</v>
@@ -33509,7 +33509,7 @@
         <v>645.4206434812412</v>
       </c>
       <c r="N33" t="n">
-        <v>662.5030074051259</v>
+        <v>334.7175161480383</v>
       </c>
       <c r="O33" t="n">
         <v>606.0608213073722</v>
@@ -33518,7 +33518,7 @@
         <v>486.417240365004</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>325.1570435845256</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33734,7 +33734,7 @@
         <v>87.70213002125229</v>
       </c>
       <c r="J36" t="n">
-        <v>240.6613481258338</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>411.3285759226045</v>
@@ -33743,7 +33743,7 @@
         <v>553.0820314270184</v>
       </c>
       <c r="M36" t="n">
-        <v>645.4206434812412</v>
+        <v>431.458873683321</v>
       </c>
       <c r="N36" t="n">
         <v>662.5030074051259</v>
@@ -33752,10 +33752,10 @@
         <v>606.0608213073722</v>
       </c>
       <c r="P36" t="n">
-        <v>343.8070186064208</v>
+        <v>486.417240365004</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>325.1570435845256</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33980,10 +33980,10 @@
         <v>553.0820314270184</v>
       </c>
       <c r="M39" t="n">
-        <v>645.4206434812412</v>
+        <v>317.6351522241539</v>
       </c>
       <c r="N39" t="n">
-        <v>519.8927856465425</v>
+        <v>662.5030074051259</v>
       </c>
       <c r="O39" t="n">
         <v>606.0608213073722</v>
@@ -33992,7 +33992,7 @@
         <v>486.417240365004</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>325.1570435845256</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34208,10 +34208,10 @@
         <v>87.70213002125229</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>240.6613481258338</v>
       </c>
       <c r="K42" t="n">
-        <v>197.3668061246845</v>
+        <v>411.3285759226045</v>
       </c>
       <c r="L42" t="n">
         <v>553.0820314270184</v>
@@ -34226,10 +34226,10 @@
         <v>606.0608213073722</v>
       </c>
       <c r="P42" t="n">
-        <v>486.417240365004</v>
+        <v>343.8070186064208</v>
       </c>
       <c r="Q42" t="n">
-        <v>325.1570435845256</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34445,19 +34445,19 @@
         <v>87.70213002125229</v>
       </c>
       <c r="J45" t="n">
-        <v>240.6613481258338</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>411.3285759226045</v>
       </c>
       <c r="L45" t="n">
-        <v>225.2965401699312</v>
+        <v>553.0820314270184</v>
       </c>
       <c r="M45" t="n">
         <v>645.4206434812412</v>
       </c>
       <c r="N45" t="n">
-        <v>662.5030074051259</v>
+        <v>448.5412376072056</v>
       </c>
       <c r="O45" t="n">
         <v>606.0608213073722</v>
@@ -34775,19 +34775,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K3" t="n">
-        <v>73.09363939595693</v>
+        <v>14.52678165662569</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
         <v>276.1565137023555</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>269.1887005891756</v>
@@ -34796,7 +34796,7 @@
         <v>198.8728484821096</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181315</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343426</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435311</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060975</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492246</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530461</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116805</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898695</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770719</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031303</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730105</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262945</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.319733433891</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245905</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735652</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137345</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713983</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850089</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.361483553566</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>148.3708461458884</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557985</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873179</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>392.1207514155946</v>
+        <v>285.6334018152816</v>
       </c>
       <c r="K11" t="n">
-        <v>709.6518082882658</v>
+        <v>385.506395717101</v>
       </c>
       <c r="L11" t="n">
         <v>515.5292796216202</v>
       </c>
       <c r="M11" t="n">
-        <v>605.6149861885256</v>
+        <v>1055.128519681358</v>
       </c>
       <c r="N11" t="n">
-        <v>620.0748823199021</v>
+        <v>1057.421806731886</v>
       </c>
       <c r="O11" t="n">
         <v>572.0491672651418</v>
       </c>
       <c r="P11" t="n">
-        <v>775.1799417899208</v>
+        <v>453.3812336184382</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.5236526149218</v>
+        <v>291.8110849260476</v>
       </c>
       <c r="R11" t="n">
-        <v>149.1887733212432</v>
+        <v>83.47235344826078</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,10 +35489,10 @@
         <v>113.8237214591671</v>
       </c>
       <c r="K12" t="n">
-        <v>273.4871369482455</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>86.7421603900568</v>
+        <v>414.5276516471442</v>
       </c>
       <c r="M12" t="n">
         <v>503.2866095592229</v>
@@ -35507,7 +35507,7 @@
         <v>352.4428329506738</v>
       </c>
       <c r="Q12" t="n">
-        <v>185.1752694985041</v>
+        <v>130.8769151896621</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35577,7 +35577,7 @@
         <v>374.3406270158951</v>
       </c>
       <c r="N13" t="n">
-        <v>370.9291551351212</v>
+        <v>370.9291551351239</v>
       </c>
       <c r="O13" t="n">
         <v>326.4350351135085</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>314.2347483175462</v>
+        <v>223.0241362435208</v>
       </c>
       <c r="K14" t="n">
-        <v>709.6518082882658</v>
+        <v>385.506395717101</v>
       </c>
       <c r="L14" t="n">
-        <v>515.5292796216202</v>
+        <v>933.1904941720707</v>
       </c>
       <c r="M14" t="n">
         <v>605.6149861885256</v>
       </c>
       <c r="N14" t="n">
-        <v>620.0748823199021</v>
+        <v>705.3667901103028</v>
       </c>
       <c r="O14" t="n">
-        <v>572.0491672651418</v>
+        <v>952.8493485278872</v>
       </c>
       <c r="P14" t="n">
-        <v>775.1799417899208</v>
+        <v>453.3812336184382</v>
       </c>
       <c r="Q14" t="n">
-        <v>504.1260755859523</v>
+        <v>291.8110849260476</v>
       </c>
       <c r="R14" t="n">
-        <v>83.47235344826078</v>
+        <v>149.1887733212432</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,7 +35732,7 @@
         <v>414.5276516471442</v>
       </c>
       <c r="M15" t="n">
-        <v>503.2866095592229</v>
+        <v>360.6763878006394</v>
       </c>
       <c r="N15" t="n">
         <v>531.1612953217926</v>
@@ -35741,7 +35741,7 @@
         <v>463.4645768629277</v>
       </c>
       <c r="P15" t="n">
-        <v>209.8326111920901</v>
+        <v>352.4428329506738</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35884,10 +35884,10 @@
         <v>392.1207514155946</v>
       </c>
       <c r="K17" t="n">
-        <v>470.1868789382677</v>
+        <v>709.6518082882658</v>
       </c>
       <c r="L17" t="n">
-        <v>933.1904941720707</v>
+        <v>515.5292796216202</v>
       </c>
       <c r="M17" t="n">
         <v>605.6149861885256</v>
@@ -35896,16 +35896,16 @@
         <v>620.0748823199021</v>
       </c>
       <c r="O17" t="n">
-        <v>572.0491672651418</v>
+        <v>706.4781548269991</v>
       </c>
       <c r="P17" t="n">
-        <v>453.3812336184382</v>
+        <v>775.1799417899208</v>
       </c>
       <c r="Q17" t="n">
-        <v>504.1260755859523</v>
+        <v>291.8110849260476</v>
       </c>
       <c r="R17" t="n">
-        <v>149.1887733212432</v>
+        <v>83.47235344826078</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>59.52536715032524</v>
+        <v>113.8237214591671</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>273.4871369482455</v>
       </c>
       <c r="L18" t="n">
         <v>414.5276516471442</v>
@@ -35975,7 +35975,7 @@
         <v>531.1612953217926</v>
       </c>
       <c r="O18" t="n">
-        <v>463.4645768629277</v>
+        <v>135.67908560584</v>
       </c>
       <c r="P18" t="n">
         <v>352.4428329506738</v>
@@ -36118,13 +36118,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>223.0241362435208</v>
+        <v>392.1207514155946</v>
       </c>
       <c r="K20" t="n">
         <v>709.6518082882658</v>
       </c>
       <c r="L20" t="n">
-        <v>819.0548823555506</v>
+        <v>515.5292796216202</v>
       </c>
       <c r="M20" t="n">
         <v>605.6149861885256</v>
@@ -36139,10 +36139,10 @@
         <v>775.1799417899208</v>
       </c>
       <c r="Q20" t="n">
-        <v>291.8110849260476</v>
+        <v>360.5236526149227</v>
       </c>
       <c r="R20" t="n">
-        <v>83.47235344826078</v>
+        <v>149.1887733212432</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>113.8237214591671</v>
       </c>
       <c r="K21" t="n">
-        <v>130.8769151896621</v>
+        <v>273.4871369482455</v>
       </c>
       <c r="L21" t="n">
         <v>414.5276516471442</v>
@@ -36215,7 +36215,7 @@
         <v>463.4645768629277</v>
       </c>
       <c r="P21" t="n">
-        <v>352.4428329506738</v>
+        <v>209.8326111920901</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>223.0241362435208</v>
+        <v>392.1207514155946</v>
       </c>
       <c r="K23" t="n">
         <v>385.506395717101</v>
@@ -36367,16 +36367,16 @@
         <v>1055.128519681358</v>
       </c>
       <c r="N23" t="n">
-        <v>1057.421806731886</v>
+        <v>738.6194664716692</v>
       </c>
       <c r="O23" t="n">
-        <v>634.6584328369029</v>
+        <v>572.0491672651418</v>
       </c>
       <c r="P23" t="n">
         <v>453.3812336184382</v>
       </c>
       <c r="Q23" t="n">
-        <v>291.8110849260476</v>
+        <v>504.1260755859523</v>
       </c>
       <c r="R23" t="n">
         <v>83.47235344826078</v>
@@ -36449,16 +36449,16 @@
         <v>531.1612953217926</v>
       </c>
       <c r="O24" t="n">
-        <v>308.3795466376265</v>
+        <v>135.67908560584</v>
       </c>
       <c r="P24" t="n">
         <v>352.4428329506738</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>185.1752694985041</v>
       </c>
       <c r="R24" t="n">
-        <v>12.47480846671729</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>248.5183284445651</v>
+        <v>223.0241362435208</v>
       </c>
       <c r="K26" t="n">
         <v>709.6518082882658</v>
@@ -36601,22 +36601,22 @@
         <v>515.5292796216202</v>
       </c>
       <c r="M26" t="n">
-        <v>605.6149861885256</v>
+        <v>793.5923726819551</v>
       </c>
       <c r="N26" t="n">
-        <v>620.0748823199021</v>
+        <v>1057.421806731886</v>
       </c>
       <c r="O26" t="n">
         <v>572.0491672651418</v>
       </c>
       <c r="P26" t="n">
-        <v>775.1799417899208</v>
+        <v>453.3812336184382</v>
       </c>
       <c r="Q26" t="n">
-        <v>504.1260755859523</v>
+        <v>291.8110849260476</v>
       </c>
       <c r="R26" t="n">
-        <v>149.1887733212432</v>
+        <v>83.47235344826078</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>113.8237214591671</v>
       </c>
       <c r="K27" t="n">
         <v>273.4871369482455</v>
@@ -36680,13 +36680,13 @@
         <v>414.5276516471442</v>
       </c>
       <c r="M27" t="n">
-        <v>289.3248397613025</v>
+        <v>503.2866095592229</v>
       </c>
       <c r="N27" t="n">
         <v>531.1612953217926</v>
       </c>
       <c r="O27" t="n">
-        <v>463.4645768629277</v>
+        <v>135.67908560584</v>
       </c>
       <c r="P27" t="n">
         <v>352.4428329506738</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>248.5183284445651</v>
+        <v>392.1207514155946</v>
       </c>
       <c r="K29" t="n">
-        <v>709.6518082882658</v>
+        <v>385.506395717101</v>
       </c>
       <c r="L29" t="n">
         <v>515.5292796216202</v>
       </c>
       <c r="M29" t="n">
-        <v>605.6149861885256</v>
+        <v>1055.128519681358</v>
       </c>
       <c r="N29" t="n">
         <v>620.0748823199021</v>
       </c>
       <c r="O29" t="n">
-        <v>572.0491672651418</v>
+        <v>902.9087420768134</v>
       </c>
       <c r="P29" t="n">
-        <v>775.1799417899208</v>
+        <v>453.3812336184382</v>
       </c>
       <c r="Q29" t="n">
-        <v>504.1260755859523</v>
+        <v>291.8110849260476</v>
       </c>
       <c r="R29" t="n">
-        <v>149.1887733212432</v>
+        <v>83.47235344826078</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>273.4871369482455</v>
       </c>
       <c r="L30" t="n">
-        <v>271.9174298885608</v>
+        <v>414.5276516471442</v>
       </c>
       <c r="M30" t="n">
         <v>503.2866095592229</v>
@@ -36923,16 +36923,16 @@
         <v>531.1612953217926</v>
       </c>
       <c r="O30" t="n">
-        <v>463.4645768629277</v>
+        <v>123.2042771391225</v>
       </c>
       <c r="P30" t="n">
         <v>352.4428329506738</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>185.1752694985041</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>12.47480846671729</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37072,13 +37072,13 @@
         <v>385.506395717101</v>
       </c>
       <c r="L32" t="n">
-        <v>515.5292796216202</v>
+        <v>933.1904941720707</v>
       </c>
       <c r="M32" t="n">
         <v>1055.128519681358</v>
       </c>
       <c r="N32" t="n">
-        <v>1057.421806731886</v>
+        <v>702.3698577531974</v>
       </c>
       <c r="O32" t="n">
         <v>572.0491672651418</v>
@@ -37090,7 +37090,7 @@
         <v>291.8110849260476</v>
       </c>
       <c r="R32" t="n">
-        <v>146.0816190200291</v>
+        <v>83.47235344826078</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>113.8237214591671</v>
       </c>
       <c r="K33" t="n">
-        <v>130.8769151896624</v>
+        <v>273.4871369482455</v>
       </c>
       <c r="L33" t="n">
         <v>414.5276516471442</v>
@@ -37157,7 +37157,7 @@
         <v>503.2866095592229</v>
       </c>
       <c r="N33" t="n">
-        <v>531.1612953217926</v>
+        <v>203.375804064705</v>
       </c>
       <c r="O33" t="n">
         <v>463.4645768629277</v>
@@ -37166,7 +37166,7 @@
         <v>352.4428329506738</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>185.1752694985041</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>280.4687278946038</v>
+        <v>223.0241362435208</v>
       </c>
       <c r="K35" t="n">
-        <v>385.506395717101</v>
+        <v>545.7197580980452</v>
       </c>
       <c r="L35" t="n">
         <v>515.5292796216202</v>
@@ -37318,16 +37318,16 @@
         <v>620.0748823199021</v>
       </c>
       <c r="O35" t="n">
-        <v>952.8493485278872</v>
+        <v>572.0491672651418</v>
       </c>
       <c r="P35" t="n">
         <v>775.1799417899208</v>
       </c>
       <c r="Q35" t="n">
-        <v>291.8110849260476</v>
+        <v>504.1260755859523</v>
       </c>
       <c r="R35" t="n">
-        <v>83.47235344826078</v>
+        <v>149.1887733212432</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>113.8237214591671</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>273.4871369482455</v>
@@ -37391,7 +37391,7 @@
         <v>414.5276516471442</v>
       </c>
       <c r="M36" t="n">
-        <v>503.2866095592229</v>
+        <v>289.3248397613027</v>
       </c>
       <c r="N36" t="n">
         <v>531.1612953217926</v>
@@ -37400,10 +37400,10 @@
         <v>463.4645768629277</v>
       </c>
       <c r="P36" t="n">
-        <v>209.8326111920906</v>
+        <v>352.4428329506738</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>185.1752694985041</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>70.00112636064961</v>
+        <v>70.00112636064944</v>
       </c>
       <c r="K37" t="n">
-        <v>238.2193897555649</v>
+        <v>238.2193897555647</v>
       </c>
       <c r="L37" t="n">
-        <v>357.4647808018168</v>
+        <v>357.4647808018167</v>
       </c>
       <c r="M37" t="n">
-        <v>386.7177376937404</v>
+        <v>386.7177376937403</v>
       </c>
       <c r="N37" t="n">
-        <v>383.3062658129693</v>
+        <v>383.3062658129692</v>
       </c>
       <c r="O37" t="n">
-        <v>338.8121457913539</v>
+        <v>338.8121457913537</v>
       </c>
       <c r="P37" t="n">
-        <v>267.9404117347205</v>
+        <v>267.9404117347203</v>
       </c>
       <c r="Q37" t="n">
-        <v>105.038034702605</v>
+        <v>105.0380347026048</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,10 +37543,10 @@
         <v>392.1207514155946</v>
       </c>
       <c r="K38" t="n">
-        <v>698.4218510974514</v>
+        <v>385.506395717101</v>
       </c>
       <c r="L38" t="n">
-        <v>515.5292796216202</v>
+        <v>933.1904941720707</v>
       </c>
       <c r="M38" t="n">
         <v>605.6149861885256</v>
@@ -37561,7 +37561,7 @@
         <v>453.3812336184382</v>
       </c>
       <c r="Q38" t="n">
-        <v>504.1260755859523</v>
+        <v>399.3803164158548</v>
       </c>
       <c r="R38" t="n">
         <v>149.1887733212432</v>
@@ -37628,10 +37628,10 @@
         <v>414.5276516471442</v>
       </c>
       <c r="M39" t="n">
-        <v>503.2866095592229</v>
+        <v>175.5011183021356</v>
       </c>
       <c r="N39" t="n">
-        <v>388.5510735632092</v>
+        <v>531.1612953217926</v>
       </c>
       <c r="O39" t="n">
         <v>463.4645768629277</v>
@@ -37640,7 +37640,7 @@
         <v>352.4428329506738</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>185.1752694985041</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>70.00112636064955</v>
+        <v>70.00112636064944</v>
       </c>
       <c r="K40" t="n">
-        <v>238.2193897555648</v>
+        <v>238.2193897555647</v>
       </c>
       <c r="L40" t="n">
-        <v>357.4647808018167</v>
+        <v>357.4647808018166</v>
       </c>
       <c r="M40" t="n">
-        <v>386.7177376937404</v>
+        <v>386.7177376937403</v>
       </c>
       <c r="N40" t="n">
         <v>383.3062658129692</v>
       </c>
       <c r="O40" t="n">
-        <v>338.8121457913538</v>
+        <v>338.8121457913537</v>
       </c>
       <c r="P40" t="n">
-        <v>267.9404117347204</v>
+        <v>267.9404117347203</v>
       </c>
       <c r="Q40" t="n">
-        <v>105.0380347026049</v>
+        <v>105.0380347026048</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>280.4687278946038</v>
+        <v>392.1207514155946</v>
       </c>
       <c r="K41" t="n">
         <v>385.506395717101</v>
@@ -37786,22 +37786,22 @@
         <v>515.5292796216202</v>
       </c>
       <c r="M41" t="n">
-        <v>605.6149861885256</v>
+        <v>1055.128519681358</v>
       </c>
       <c r="N41" t="n">
         <v>620.0748823199021</v>
       </c>
       <c r="O41" t="n">
-        <v>952.8493485278872</v>
+        <v>647.7660798125671</v>
       </c>
       <c r="P41" t="n">
-        <v>775.1799417899208</v>
+        <v>453.3812336184382</v>
       </c>
       <c r="Q41" t="n">
         <v>291.8110849260476</v>
       </c>
       <c r="R41" t="n">
-        <v>83.47235344826078</v>
+        <v>149.1887733212432</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>113.8237214591671</v>
       </c>
       <c r="K42" t="n">
-        <v>59.52536715032549</v>
+        <v>273.4871369482455</v>
       </c>
       <c r="L42" t="n">
         <v>414.5276516471442</v>
@@ -37874,10 +37874,10 @@
         <v>463.4645768629277</v>
       </c>
       <c r="P42" t="n">
-        <v>352.4428329506738</v>
+        <v>209.8326111920906</v>
       </c>
       <c r="Q42" t="n">
-        <v>185.1752694985041</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>70.00112636064955</v>
+        <v>70.00112636064944</v>
       </c>
       <c r="K43" t="n">
-        <v>238.2193897555648</v>
+        <v>238.2193897555647</v>
       </c>
       <c r="L43" t="n">
-        <v>357.4647808018167</v>
+        <v>357.4647808018166</v>
       </c>
       <c r="M43" t="n">
-        <v>386.7177376937404</v>
+        <v>386.7177376937403</v>
       </c>
       <c r="N43" t="n">
         <v>383.3062658129692</v>
       </c>
       <c r="O43" t="n">
-        <v>338.8121457913538</v>
+        <v>338.8121457913537</v>
       </c>
       <c r="P43" t="n">
-        <v>267.9404117347204</v>
+        <v>267.9404117347203</v>
       </c>
       <c r="Q43" t="n">
-        <v>105.0380347026049</v>
+        <v>105.0380347026048</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>337.1234965861843</v>
+        <v>223.0241362435208</v>
       </c>
       <c r="K44" t="n">
-        <v>709.6518082882658</v>
+        <v>385.506395717101</v>
       </c>
       <c r="L44" t="n">
-        <v>515.5292796216202</v>
+        <v>933.1904941720707</v>
       </c>
       <c r="M44" t="n">
         <v>605.6149861885256</v>
@@ -38038,7 +38038,7 @@
         <v>291.8110849260476</v>
       </c>
       <c r="R44" t="n">
-        <v>83.47235344826078</v>
+        <v>104.0559118116419</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>113.8237214591671</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>273.4871369482455</v>
       </c>
       <c r="L45" t="n">
-        <v>86.74216039005702</v>
+        <v>414.5276516471442</v>
       </c>
       <c r="M45" t="n">
         <v>503.2866095592229</v>
       </c>
       <c r="N45" t="n">
-        <v>531.1612953217926</v>
+        <v>317.1995255238724</v>
       </c>
       <c r="O45" t="n">
         <v>463.4645768629277</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>70.00112636064955</v>
+        <v>70.00112636064944</v>
       </c>
       <c r="K46" t="n">
-        <v>238.2193897555648</v>
+        <v>238.2193897555647</v>
       </c>
       <c r="L46" t="n">
-        <v>357.4647808018167</v>
+        <v>357.4647808018166</v>
       </c>
       <c r="M46" t="n">
-        <v>386.7177376937404</v>
+        <v>386.7177376937403</v>
       </c>
       <c r="N46" t="n">
-        <v>383.3062658129692</v>
+        <v>383.3062658129691</v>
       </c>
       <c r="O46" t="n">
-        <v>338.8121457913538</v>
+        <v>338.8121457913537</v>
       </c>
       <c r="P46" t="n">
-        <v>267.9404117347204</v>
+        <v>267.9404117347203</v>
       </c>
       <c r="Q46" t="n">
-        <v>105.0380347026049</v>
+        <v>105.0380347026048</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
